--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\STUDENTS_MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777B64-FD38-4D0A-98E8-E4DA9A1CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3840" windowWidth="34560" windowHeight="13644" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <definedName name="_Order1">0</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,13 +47,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="G5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="H5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,13 +245,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I5" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="J5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -440,12 +439,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{FEC38342-FAFB-468E-B86C-E896F94E4F07}">
+    <comment ref="C16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,12 +477,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -502,14 +501,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>tc={70911FE4-4C4E-4558-8CD0-C1439EB30AC1}</author>
     <author>tc={E4F5F666-2BDB-4F8C-8784-8054A11A4221}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,20 +522,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="X5" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Produkcja energii elektrycznej netto w pełnej kondensacji</t>
+        </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="AA5" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Wielkość produkcji energii elektrycznej, która jest „tracona” na rzecz produkcji ciepła PPELC (upuszczona para mogłaby wykonać pracę na łopatach turbiny skutkującą produkcją energii elektrycznej)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -544,12 +555,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -568,12 +579,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +603,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="320">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1647,11 +1658,38 @@
   <si>
     <t>* Transmission &amp; Distribution Losses / Straty przesyłu i dystrybucji</t>
   </si>
+  <si>
+    <t>TRANSF_HV-HV</t>
+  </si>
+  <si>
+    <t>Electricity Transformation and Distribution High Voltage to High Voltage</t>
+  </si>
+  <si>
+    <t>ELEC_HV_HV</t>
+  </si>
+  <si>
+    <t>ELEC_MV_MV</t>
+  </si>
+  <si>
+    <t>ELEC_LV_LV</t>
+  </si>
+  <si>
+    <t>TRANSF_MV-MV</t>
+  </si>
+  <si>
+    <t>TRANSF_LV-LV</t>
+  </si>
+  <si>
+    <t>Electricity Transformation and Distribution Low Voltage to Low Voltage</t>
+  </si>
+  <si>
+    <t>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1660,7 +1698,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000___)"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1781,12 +1819,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -3158,151 +3190,151 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="5" borderId="87" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3332,13 +3364,13 @@
     <xf numFmtId="166" fontId="15" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3347,16 +3379,13 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3399,12 +3428,12 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3422,7 +3451,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3440,9 +3469,9 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3453,11 +3482,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3469,76 +3498,76 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3586,10 +3615,9 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3603,18 +3631,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="31" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3650,61 +3678,58 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3716,31 +3741,31 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
-    <cellStyle name="Normal 2" xfId="5" xr:uid="{A7260F85-B5B3-45B4-BDA7-1B7692316576}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
-    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
-    <cellStyle name="Normalny 43" xfId="7" xr:uid="{25509E4F-049A-4BCD-9F3D-F29DF0A232D3}"/>
-    <cellStyle name="Normalny_S301-339-05" xfId="9" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
-    <cellStyle name="Normalny_T206" xfId="10" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
-    <cellStyle name="Per cent" xfId="8" builtinId="5"/>
-    <cellStyle name="Per cent 2" xfId="6" xr:uid="{16AEAEF0-BCF7-4E92-A003-70F2F7EBC894}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="4"/>
+    <cellStyle name="Normalny 43" xfId="7"/>
+    <cellStyle name="Normalny_S301-339-05" xfId="9"/>
+    <cellStyle name="Normalny_T206" xfId="10"/>
+    <cellStyle name="Per cent 2" xfId="6"/>
+    <cellStyle name="Procentowy" xfId="8" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3775,7 +3800,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3870,7 +3895,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3966,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4012,7 +4037,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4108,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4154,7 +4179,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4225,7 +4250,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4296,7 +4321,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4367,7 +4392,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4463,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4534,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4580,7 +4605,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4637,7 +4662,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -5135,78 +5160,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" customWidth="1"/>
-    <col min="3" max="3" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="188" t="s">
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="187" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="188"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="209" t="s">
+      <c r="C2" s="187"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="208" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="209"/>
-    </row>
-    <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="209" t="s">
+      <c r="C4" s="208"/>
+    </row>
+    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="208" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="209"/>
-    </row>
-    <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="296" t="s">
+      <c r="C5" s="208"/>
+    </row>
+    <row r="6" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="294" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="299" t="s">
+      <c r="C6" s="297" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="212" t="s">
+      <c r="D6" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="212" t="s">
+      <c r="E6" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="212" t="s">
+      <c r="F6" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="212" t="s">
+      <c r="G6" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="212" t="s">
+      <c r="H6" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="212" t="s">
+      <c r="I6" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="213" t="s">
+      <c r="J6" s="212" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="297"/>
-      <c r="C7" s="300"/>
+    <row r="7" spans="2:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="B7" s="295"/>
+      <c r="C7" s="298"/>
       <c r="D7" s="139" t="s">
         <v>224</v>
       </c>
@@ -5229,524 +5254,524 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B8" s="298"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="208" t="s">
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="296"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="208" t="s">
+      <c r="E8" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="208" t="s">
+      <c r="F8" s="207" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="208" t="s">
+      <c r="G8" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="208" t="s">
+      <c r="H8" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="208" t="s">
+      <c r="I8" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="214" t="s">
+      <c r="J8" s="213" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="215" t="s">
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="214" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="284" t="s">
+      <c r="C9" s="282" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="207">
+      <c r="D9" s="206">
         <v>17023.8</v>
       </c>
-      <c r="E9" s="207">
+      <c r="E9" s="206">
         <v>47860</v>
       </c>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207">
+      <c r="F9" s="206"/>
+      <c r="G9" s="206">
         <v>20996.9</v>
       </c>
-      <c r="H9" s="207">
+      <c r="H9" s="206">
         <v>21688.2</v>
       </c>
-      <c r="I9" s="207"/>
-      <c r="J9" s="216"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B10" s="215" t="s">
+      <c r="I9" s="206"/>
+      <c r="J9" s="215"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="284" t="s">
+      <c r="C10" s="282" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="207">
+      <c r="D10" s="206">
         <v>7391.2</v>
       </c>
-      <c r="E10" s="207">
+      <c r="E10" s="206">
         <v>34351.700000000004</v>
       </c>
-      <c r="F10" s="207"/>
-      <c r="G10" s="207">
+      <c r="F10" s="206"/>
+      <c r="G10" s="206">
         <v>45266.6</v>
       </c>
-      <c r="H10" s="207">
+      <c r="H10" s="206">
         <v>7935.8</v>
       </c>
-      <c r="I10" s="207"/>
-      <c r="J10" s="216"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="215" t="s">
+      <c r="I10" s="206"/>
+      <c r="J10" s="215"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="284" t="s">
+      <c r="C11" s="282" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="207">
+      <c r="D11" s="206">
         <v>4094.6000000000022</v>
       </c>
-      <c r="E11" s="207">
+      <c r="E11" s="206">
         <v>16259.8</v>
       </c>
-      <c r="F11" s="207">
+      <c r="F11" s="206">
         <v>137017.29999999999</v>
       </c>
-      <c r="G11" s="207">
+      <c r="G11" s="206">
         <v>11204.8</v>
       </c>
-      <c r="H11" s="207">
+      <c r="H11" s="206">
         <v>21089.599999999999</v>
       </c>
-      <c r="I11" s="207"/>
-      <c r="J11" s="216"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B12" s="215" t="s">
+      <c r="I11" s="206"/>
+      <c r="J11" s="215"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="282" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="207">
+      <c r="D12" s="206">
         <v>1656.5</v>
       </c>
-      <c r="E12" s="207">
+      <c r="E12" s="206">
         <v>7464.6</v>
       </c>
-      <c r="F12" s="207">
+      <c r="F12" s="206">
         <v>17571.3</v>
       </c>
-      <c r="G12" s="207"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="207">
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206">
         <v>2109.5030000000002</v>
       </c>
-      <c r="J12" s="216">
+      <c r="J12" s="215">
         <v>32467</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B13" s="215" t="s">
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="282" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="207">
+      <c r="D13" s="206">
         <v>6227.6934486274804</v>
       </c>
-      <c r="E13" s="207">
+      <c r="E13" s="206">
         <v>15623.048922000018</v>
       </c>
-      <c r="F13" s="207"/>
-      <c r="G13" s="207"/>
-      <c r="H13" s="207"/>
-      <c r="I13" s="207"/>
-      <c r="J13" s="216"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="215" t="s">
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="215"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B14" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="284" t="s">
+      <c r="C14" s="282" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="207">
+      <c r="D14" s="206">
         <v>3954.96</v>
       </c>
-      <c r="E14" s="207">
+      <c r="E14" s="206">
         <v>1957.92</v>
       </c>
-      <c r="F14" s="207"/>
-      <c r="G14" s="207"/>
-      <c r="H14" s="207"/>
-      <c r="I14" s="207"/>
-      <c r="J14" s="216"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="217" t="s">
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="215"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="216" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="285" t="s">
+      <c r="C15" s="283" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="228">
         <v>19.806000000000001</v>
       </c>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207">
+      <c r="E15" s="206"/>
+      <c r="F15" s="206">
         <v>81695</v>
       </c>
-      <c r="G15" s="207">
+      <c r="G15" s="206">
         <v>4227</v>
       </c>
-      <c r="H15" s="207">
+      <c r="H15" s="206">
         <v>22840</v>
       </c>
-      <c r="I15" s="207"/>
-      <c r="J15" s="216"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="218" t="s">
+      <c r="I15" s="206"/>
+      <c r="J15" s="215"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="217" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="286" t="s">
+      <c r="C16" s="284" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="219"/>
-      <c r="E16" s="220">
+      <c r="D16" s="218"/>
+      <c r="E16" s="219">
         <f>SUM(E9:E15)</f>
         <v>123517.06892200003</v>
       </c>
-      <c r="F16" s="220">
+      <c r="F16" s="219">
         <f>SUM(F9:F15)</f>
         <v>236283.59999999998</v>
       </c>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="221"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="211" t="s">
+      <c r="G16" s="218"/>
+      <c r="H16" s="218"/>
+      <c r="I16" s="218"/>
+      <c r="J16" s="220"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="211"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="211" t="s">
+      <c r="C17" s="210"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="211"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="291" t="s">
+      <c r="C18" s="210"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="289" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="211"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="211" t="s">
+      <c r="C19" s="210"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="210" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="211"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="209"/>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="209"/>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="188" t="s">
+      <c r="C20" s="210"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="B23" s="187" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="188"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="209" t="s">
+      <c r="C23" s="187"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="208" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="209"/>
-      <c r="D25" s="209"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-    </row>
-    <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="209" t="s">
+      <c r="C25" s="208"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="208"/>
+      <c r="F25" s="208"/>
+    </row>
+    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="208" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="209"/>
-      <c r="D26" s="209"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-    </row>
-    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="294" t="s">
+      <c r="C26" s="208"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="208"/>
+      <c r="F26" s="208"/>
+    </row>
+    <row r="27" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="292" t="s">
+      <c r="C27" s="290" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="212" t="s">
+      <c r="D27" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="222" t="s">
+      <c r="E27" s="221" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="209"/>
-    </row>
-    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="295"/>
-      <c r="C28" s="293"/>
+      <c r="F27" s="208"/>
+    </row>
+    <row r="28" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="293"/>
+      <c r="C28" s="291"/>
       <c r="D28" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="290" t="s">
+      <c r="E28" s="288" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="209"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="223" t="s">
+      <c r="F28" s="208"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="287" t="s">
+      <c r="C29" s="285" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="208" t="s">
+      <c r="D29" s="207" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="224">
+      <c r="E29" s="223">
         <v>0.97706171756374371</v>
       </c>
-      <c r="F29" s="209"/>
+      <c r="F29" s="208"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="223" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="287" t="s">
+      <c r="C30" s="285" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="208" t="s">
+      <c r="D30" s="207" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="224">
+      <c r="E30" s="223">
         <v>0.9764416403645515</v>
       </c>
-      <c r="F30" s="209"/>
+      <c r="F30" s="208"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="223" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="287" t="s">
+      <c r="C31" s="285" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="208" t="s">
+      <c r="D31" s="207" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="224">
+      <c r="E31" s="223">
         <v>0.9515253427786764</v>
       </c>
-      <c r="F31" s="209"/>
-      <c r="G31" s="143"/>
-    </row>
-    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="225" t="s">
+      <c r="F31" s="208"/>
+      <c r="G31" s="142"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="288" t="s">
+      <c r="C32" s="286" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="226" t="s">
+      <c r="D32" s="225" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="227">
+      <c r="E32" s="226">
         <v>0.85899999999999999</v>
       </c>
-      <c r="F32" s="209"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="211" t="s">
+      <c r="F32" s="208"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="209"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="291" t="s">
+      <c r="C33" s="208"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="208"/>
+      <c r="O33" s="142"/>
+      <c r="P33" s="142"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="209"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="291" t="s">
+      <c r="C34" s="208"/>
+      <c r="D34" s="208"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="208"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="289" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="210"/>
-      <c r="F35" s="209"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="209"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="209"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="209"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="209"/>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="209"/>
-    </row>
-    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="188" t="s">
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="208"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="208"/>
+      <c r="C36" s="208"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="208"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="208"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="209"/>
+      <c r="F37" s="208"/>
+    </row>
+    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="187" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="209"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="209"/>
-      <c r="C39" s="209"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="209"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="209" t="s">
+      <c r="C38" s="187"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="208"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="208"/>
+      <c r="C39" s="208"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="208"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="208" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="210"/>
-      <c r="F40" s="209"/>
-    </row>
-    <row r="41" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="209" t="s">
+      <c r="C40" s="208"/>
+      <c r="D40" s="208"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="208"/>
+    </row>
+    <row r="41" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="208" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="209"/>
-      <c r="D41" s="209"/>
-      <c r="E41" s="210"/>
-      <c r="F41" s="209"/>
-    </row>
-    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="294" t="s">
+      <c r="C41" s="208"/>
+      <c r="D41" s="208"/>
+      <c r="E41" s="209"/>
+      <c r="F41" s="208"/>
+    </row>
+    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="292" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="292" t="s">
+      <c r="C42" s="290" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="228" t="s">
+      <c r="D42" s="227" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="213" t="s">
+      <c r="E42" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="209"/>
-    </row>
-    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="295"/>
-      <c r="C43" s="293"/>
+      <c r="F42" s="208"/>
+    </row>
+    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="293"/>
+      <c r="C43" s="291"/>
       <c r="D43" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="289" t="s">
+      <c r="E43" s="287" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="209"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="223" t="s">
+      <c r="F43" s="208"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="287" t="s">
+      <c r="C44" s="285" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="208" t="s">
+      <c r="D44" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="224">
+      <c r="E44" s="223">
         <f>SUM(E9:E14)*E29/1000</f>
         <v>120.68379950936867</v>
       </c>
-      <c r="F44" s="209"/>
-    </row>
-    <row r="45" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="225" t="s">
+      <c r="F44" s="208"/>
+    </row>
+    <row r="45" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="224" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="288" t="s">
+      <c r="C45" s="286" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="227">
+      <c r="E45" s="226">
         <f>SUM(F9:F15)*E32/1000</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="F45" s="209"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="211" t="s">
+      <c r="F45" s="208"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="210" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="209"/>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="209"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="291" t="s">
+      <c r="C46" s="208"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="209"/>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="291" t="s">
+      <c r="C47" s="208"/>
+      <c r="D47" s="208"/>
+      <c r="E47" s="208"/>
+      <c r="F47" s="208"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B48" s="289" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="209"/>
-      <c r="C50" s="209"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="208"/>
+      <c r="C50" s="208"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5763,69 +5788,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15965AD-C265-4BE6-9DA6-D03BC206A38C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AL35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="115" customWidth="1"/>
-    <col min="2" max="4" width="6.44140625" style="115" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" style="115" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="115" customWidth="1"/>
-    <col min="7" max="8" width="7.21875" style="115" customWidth="1"/>
-    <col min="9" max="10" width="3.44140625" style="115" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="115" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="115" customWidth="1"/>
+    <col min="2" max="4" width="6.42578125" style="115" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="115" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="115" customWidth="1"/>
+    <col min="7" max="8" width="7.28515625" style="115" customWidth="1"/>
+    <col min="9" max="10" width="3.42578125" style="115" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="115" customWidth="1"/>
     <col min="12" max="12" width="12" style="115" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="115" customWidth="1"/>
-    <col min="14" max="16" width="7.21875" style="115" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" style="115" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" style="115" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" style="115" customWidth="1"/>
-    <col min="20" max="21" width="7.21875" style="115" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="115" customWidth="1"/>
+    <col min="14" max="16" width="7.28515625" style="115" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" style="115" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="115" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" style="115" customWidth="1"/>
+    <col min="20" max="21" width="7.28515625" style="115" customWidth="1"/>
     <col min="22" max="22" width="5" style="115" customWidth="1"/>
-    <col min="23" max="23" width="7.21875" style="115" customWidth="1"/>
-    <col min="24" max="24" width="12.77734375" style="115" customWidth="1"/>
-    <col min="25" max="25" width="7.21875" style="115" customWidth="1"/>
-    <col min="26" max="26" width="5.44140625" style="115" customWidth="1"/>
-    <col min="27" max="27" width="6.44140625" style="115" customWidth="1"/>
-    <col min="28" max="28" width="5.44140625" style="115" customWidth="1"/>
+    <col min="23" max="23" width="7.28515625" style="115" customWidth="1"/>
+    <col min="24" max="24" width="12.7109375" style="115" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" style="115" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" style="115" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" style="115" customWidth="1"/>
+    <col min="28" max="28" width="5.42578125" style="115" customWidth="1"/>
     <col min="29" max="29" width="7" style="115" customWidth="1"/>
     <col min="30" max="30" width="12" style="115" customWidth="1"/>
     <col min="31" max="31" width="7" style="115" customWidth="1"/>
-    <col min="32" max="32" width="5.77734375" style="115" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" style="115" customWidth="1"/>
     <col min="33" max="33" width="13" style="115" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="115" customWidth="1"/>
-    <col min="35" max="35" width="4.21875" style="115" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" style="115" customWidth="1"/>
-    <col min="37" max="38" width="4.21875" style="115" customWidth="1"/>
-    <col min="39" max="16384" width="9.21875" style="115"/>
+    <col min="34" max="34" width="5.7109375" style="115" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" style="115" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" style="115" customWidth="1"/>
+    <col min="37" max="38" width="4.28515625" style="115" customWidth="1"/>
+    <col min="39" max="16384" width="9.28515625" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="116" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="114" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="115" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="113"/>
       <c r="C6" s="112"/>
       <c r="D6" s="111"/>
@@ -5874,7 +5899,7 @@
       <c r="AA6" s="112"/>
       <c r="AB6" s="111"/>
     </row>
-    <row r="7" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="98"/>
       <c r="C7" s="97" t="s">
         <v>91</v>
@@ -5898,7 +5923,7 @@
       </c>
       <c r="AB7" s="96"/>
     </row>
-    <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="87"/>
       <c r="C8" s="86"/>
       <c r="D8" s="85"/>
@@ -5921,7 +5946,7 @@
       <c r="AA8" s="86"/>
       <c r="AB8" s="85"/>
     </row>
-    <row r="9" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="80"/>
       <c r="H9" s="79"/>
       <c r="L9" s="101"/>
@@ -5939,13 +5964,13 @@
         <v>27121.55</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="80"/>
       <c r="H10" s="79"/>
       <c r="K10" s="76"/>
       <c r="V10" s="90"/>
     </row>
-    <row r="11" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="80"/>
       <c r="H11" s="79"/>
       <c r="K11" s="75"/>
@@ -5962,7 +5987,7 @@
       <c r="AH11" s="73"/>
       <c r="AI11" s="72"/>
     </row>
-    <row r="12" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="113"/>
       <c r="C12" s="112"/>
       <c r="D12" s="111"/>
@@ -6022,7 +6047,7 @@
       <c r="AH12" s="111"/>
       <c r="AI12" s="60"/>
     </row>
-    <row r="13" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
       <c r="C13" s="97" t="s">
         <v>98</v>
@@ -6051,7 +6076,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="60"/>
     </row>
-    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="87"/>
       <c r="C14" s="86"/>
       <c r="D14" s="85"/>
@@ -6101,7 +6126,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="60"/>
     </row>
-    <row r="15" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G15" s="80"/>
       <c r="H15" s="47"/>
       <c r="K15" s="46"/>
@@ -6128,7 +6153,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="60"/>
     </row>
-    <row r="16" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="80"/>
       <c r="H16" s="79"/>
       <c r="I16" s="44"/>
@@ -6154,7 +6179,7 @@
       <c r="AH16" s="85"/>
       <c r="AI16" s="60"/>
     </row>
-    <row r="17" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="80"/>
       <c r="H17" s="79"/>
       <c r="I17" s="44"/>
@@ -6174,7 +6199,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="34"/>
     </row>
-    <row r="18" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="113"/>
       <c r="C18" s="112"/>
       <c r="D18" s="111"/>
@@ -6215,7 +6240,7 @@
       <c r="U18" s="53"/>
       <c r="V18" s="90"/>
     </row>
-    <row r="19" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:38" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="98"/>
       <c r="C19" s="97" t="s">
         <v>299</v>
@@ -6232,7 +6257,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="90"/>
     </row>
-    <row r="20" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="87"/>
       <c r="C20" s="86"/>
       <c r="D20" s="85"/>
@@ -6274,7 +6299,7 @@
       <c r="AK20" s="73"/>
       <c r="AL20" s="72"/>
     </row>
-    <row r="21" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
       <c r="J21" s="25"/>
@@ -6310,7 +6335,7 @@
       <c r="AK21" s="111"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
       <c r="J22" s="25"/>
@@ -6330,17 +6355,17 @@
       <c r="AK22" s="96"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:38" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G23" s="80"/>
       <c r="H23" s="79"/>
       <c r="J23" s="25"/>
       <c r="M23" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="P23" s="310">
+      <c r="P23" s="307">
         <v>154125.60999999996</v>
       </c>
-      <c r="Q23" s="310"/>
+      <c r="Q23" s="307"/>
       <c r="R23" s="115" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6395,7 @@
       <c r="AK23" s="96"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="113"/>
       <c r="C24" s="112"/>
       <c r="D24" s="111"/>
@@ -6388,10 +6413,10 @@
       <c r="M24" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="P24" s="310">
+      <c r="P24" s="307">
         <v>142240.554</v>
       </c>
-      <c r="Q24" s="310"/>
+      <c r="Q24" s="307"/>
       <c r="R24" s="115" t="s">
         <v>7</v>
       </c>
@@ -6410,7 +6435,7 @@
       <c r="AK24" s="96"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="98"/>
       <c r="D25" s="96"/>
       <c r="F25" s="49"/>
@@ -6420,10 +6445,10 @@
       <c r="M25" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="310">
+      <c r="P25" s="307">
         <v>1075.1959999999999</v>
       </c>
-      <c r="Q25" s="310"/>
+      <c r="Q25" s="307"/>
       <c r="R25" s="115" t="s">
         <v>7</v>
       </c>
@@ -6449,7 +6474,7 @@
       <c r="AK25" s="85"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="98"/>
       <c r="C26" s="49" t="s">
         <v>306</v>
@@ -6469,10 +6494,10 @@
       <c r="M26" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="P26" s="310">
+      <c r="P26" s="307">
         <v>1620.396</v>
       </c>
-      <c r="Q26" s="310"/>
+      <c r="Q26" s="307"/>
       <c r="R26" s="115" t="s">
         <v>7</v>
       </c>
@@ -6481,7 +6506,7 @@
       <c r="AE26" s="19"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="98"/>
       <c r="D27" s="96"/>
       <c r="G27" s="80"/>
@@ -6490,15 +6515,15 @@
       <c r="M27" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="P27" s="311">
+      <c r="P27" s="308">
         <v>5.9623212521267233E-2</v>
       </c>
-      <c r="Q27" s="311"/>
+      <c r="Q27" s="308"/>
       <c r="Y27" s="58"/>
       <c r="AE27" s="19"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="87"/>
       <c r="C28" s="86"/>
       <c r="D28" s="85"/>
@@ -6526,7 +6551,7 @@
       </c>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G29" s="80"/>
       <c r="J29" s="7"/>
       <c r="Y29" s="58"/>
@@ -6537,7 +6562,7 @@
       <c r="AB29" s="96"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="G30" s="80"/>
       <c r="J30" s="25"/>
       <c r="Y30" s="58"/>
@@ -6548,7 +6573,7 @@
       <c r="AB30" s="96"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G31" s="80"/>
       <c r="J31" s="25"/>
       <c r="Y31" s="6"/>
@@ -6564,7 +6589,7 @@
       </c>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="113"/>
       <c r="C32" s="112"/>
       <c r="D32" s="111"/>
@@ -6593,7 +6618,7 @@
       <c r="AK32" s="35"/>
       <c r="AL32" s="34"/>
     </row>
-    <row r="33" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B33" s="98"/>
       <c r="C33" s="49" t="s">
         <v>119</v>
@@ -6602,7 +6627,7 @@
       <c r="J33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="87"/>
       <c r="C34" s="86"/>
       <c r="D34" s="85"/>
@@ -6631,7 +6656,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="10"/>
     </row>
-    <row r="35" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="P23:Q23"/>
@@ -6646,90 +6671,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:K24"/>
+  <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="268" t="s">
+    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="266" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="163"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="162"/>
-      <c r="I3" s="162"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="163" t="s">
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="162"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+    </row>
+    <row r="4" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="272" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="272" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>40</v>
       </c>
@@ -6755,7 +6780,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>193</v>
       </c>
@@ -6768,241 +6793,310 @@
       <c r="E7" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="275" t="s">
+      <c r="F7" s="273" t="s">
         <v>257</v>
       </c>
       <c r="G7" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="275" t="s">
+      <c r="H7" s="273" t="s">
         <v>258</v>
       </c>
       <c r="I7" s="137" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="237" t="s">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="238" t="s">
+      <c r="C8" s="237" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="238" t="s">
+      <c r="D8" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="237" t="s">
+      <c r="E8" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237" t="s">
+      <c r="F8" s="236"/>
+      <c r="G8" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="H8" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="237" t="s">
+      <c r="I8" s="236" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="239" t="s">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="240" t="s">
+      <c r="C9" s="239" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="239" t="s">
+      <c r="E9" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239" t="s">
+      <c r="F9" s="238"/>
+      <c r="G9" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="239" t="s">
+      <c r="H9" s="238" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="239" t="s">
+      <c r="I9" s="238" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="237" t="s">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="238" t="s">
+      <c r="C10" s="237" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="238" t="s">
+      <c r="D10" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="237" t="s">
+      <c r="E10" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="237"/>
-      <c r="G10" s="237" t="s">
+      <c r="F10" s="236"/>
+      <c r="G10" s="236" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="237" t="s">
+      <c r="H10" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="237" t="s">
+      <c r="I10" s="236" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="239" t="s">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="240" t="s">
+      <c r="C11" s="142" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="237" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="236" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="236" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="236" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="236" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="239" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="236" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="236" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="236" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="236" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="237" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="236" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="236" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="236" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="236" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="238" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="239" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="240" t="s">
+      <c r="D14" s="239" t="s">
         <v>56</v>
-      </c>
-      <c r="E11" s="239" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="239" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="239"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="237" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="238" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="238" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="237" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="237"/>
-      <c r="G12" s="237" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="237" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="237"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="239" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="240" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="240" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="240" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="237" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="238" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="238" t="s">
-        <v>255</v>
       </c>
       <c r="E14" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="237"/>
-      <c r="G14" s="237"/>
-      <c r="H14" s="237"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="238" t="s">
+        <v>51</v>
+      </c>
       <c r="I14" s="238"/>
-      <c r="K14" s="164"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="241" t="s">
+      <c r="K14" s="163"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="236" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="237" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="237" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="236" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="236"/>
+      <c r="G15" s="236" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="236" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="236"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="238" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="239" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" s="239" t="s">
+        <v>256</v>
+      </c>
+      <c r="E16" s="239" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="236" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="237" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="237" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="237"/>
+    </row>
+    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="241" t="s">
+      <c r="C18" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="264" t="s">
+      <c r="D18" s="262" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="241" t="s">
+      <c r="E18" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="241"/>
-      <c r="H15" s="241"/>
-      <c r="I15" s="241"/>
-    </row>
-    <row r="19" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="302" t="s">
+      <c r="F18" s="240"/>
+      <c r="G18" s="240"/>
+      <c r="H18" s="240"/>
+      <c r="I18" s="240"/>
+    </row>
+    <row r="26" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="300" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="302"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="267" t="s">
+      <c r="C26" s="300"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C27" s="265" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C28" s="124" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="122" t="s">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="122" t="s">
+      <c r="C29" s="122" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="124" t="s">
+      <c r="C30" s="124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="118" t="s">
+    <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C31" s="118" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7013,88 +7107,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="10" width="21.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" customWidth="1"/>
+    <col min="6" max="10" width="21.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="271"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="272" t="s">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="269"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152"/>
+      <c r="B2" s="270" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="163" t="s">
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-      <c r="I4" s="164"/>
-      <c r="J4" s="164"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="272" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="272" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="272" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="272" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>83</v>
       </c>
@@ -7123,7 +7217,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>199</v>
       </c>
@@ -7145,345 +7239,412 @@
       <c r="H7" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="276" t="s">
+      <c r="I7" s="274" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="276" t="s">
+      <c r="J7" s="274" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="242" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="171" t="s">
+      <c r="C8" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="171" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="172" t="s">
+      <c r="E8" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="171" t="s">
+      <c r="F8" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="171" t="s">
+      <c r="G8" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="171" t="s">
+      <c r="H8" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="171"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="243" t="s">
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="199" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="199" t="s">
+      <c r="H9" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="242" t="s">
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="171" t="s">
+      <c r="C10" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="172" t="s">
+      <c r="D10" s="171" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="171" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="171" t="s">
+      <c r="F10" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="171" t="s">
+      <c r="G10" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="171" t="s">
+      <c r="H10" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="243" t="s">
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="199" t="s">
+      <c r="C11" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="199" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="200" t="s">
+      <c r="E11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="199" t="s">
+      <c r="F11" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="199" t="s">
+      <c r="G11" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="199" t="s">
+      <c r="H11" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="242" t="s">
+      <c r="I11" s="198"/>
+      <c r="J11" s="198"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="241" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="172" t="s">
+      <c r="D12" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="172" t="s">
+      <c r="E12" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="243" t="s">
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="199" t="s">
+      <c r="C13" s="198" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="200" t="s">
+      <c r="D13" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="200" t="s">
+      <c r="E13" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="199" t="s">
+      <c r="F13" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="199" t="s">
+      <c r="G13" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="199" t="s">
+      <c r="H13" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="242" t="s">
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="241" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="172" t="s">
+      <c r="D14" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="171" t="s">
+      <c r="F14" s="170" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="171" t="s">
+      <c r="G14" s="170" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="171" t="s">
+      <c r="H14" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="277" t="s">
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="278" t="s">
+      <c r="C15" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="279" t="s">
+      <c r="D15" s="277" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="279" t="s">
+      <c r="E15" s="277" t="s">
         <v>108</v>
       </c>
-      <c r="F15" s="278" t="s">
+      <c r="F15" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="278" t="s">
+      <c r="G15" s="276" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="278" t="s">
+      <c r="H15" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="278"/>
-      <c r="J15" s="278"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="280" t="s">
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="280" t="s">
+      <c r="C16" s="278" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="281" t="s">
+      <c r="D16" s="279" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="281" t="s">
+      <c r="E16" s="279" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="280" t="s">
+      <c r="F16" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="280" t="s">
+      <c r="G16" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="280" t="s">
+      <c r="H16" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="142"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="304" t="s">
+      <c r="I16" s="278"/>
+      <c r="J16" s="278"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="275" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="276" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="277" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="277" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="276" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="276" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="276"/>
+      <c r="J17" s="276"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="275" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="276" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="277" t="s">
+        <v>316</v>
+      </c>
+      <c r="E18" s="277" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="276" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="276" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="276"/>
+      <c r="J18" s="276"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="275" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="276" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="277" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="277" t="s">
+        <v>318</v>
+      </c>
+      <c r="F19" s="276" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="276" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="276" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="276"/>
+      <c r="J19" s="276"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="301" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="304"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="122" t="s">
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="122" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C22" s="122" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="122"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="D22" s="122"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C23" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="124"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
+      <c r="D23" s="124"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="122" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C24" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="122"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="s">
+      <c r="D24" s="122"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C25" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="124"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="122" t="s">
+      <c r="D25" s="124"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="122" t="s">
+      <c r="C26" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="122" t="s">
+      <c r="D26" s="122" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="124" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="124" t="s">
+      <c r="C27" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="124" t="s">
+      <c r="D27" s="124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="122" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="122" t="s">
+      <c r="C28" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="122" t="s">
+      <c r="D28" s="122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="124" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C29" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="D28" s="124" t="s">
+      <c r="D29" s="124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="118" t="s">
+    <row r="30" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C30" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="118"/>
+      <c r="D30" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B20:D20"/>
+  <mergeCells count="1">
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7494,93 +7655,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
-    <col min="11" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="11" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="188"/>
-      <c r="E2" s="146"/>
-      <c r="H2" s="149"/>
+      <c r="C2" s="187"/>
+      <c r="E2" s="145"/>
+      <c r="H2" s="148"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
       <c r="K2" s="141"/>
       <c r="L2" s="141"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="148"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="148"/>
-    </row>
-    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="147"/>
+    </row>
+    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-    </row>
-    <row r="5" spans="2:30" s="144" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+      <c r="S4" s="154"/>
+    </row>
+    <row r="5" spans="2:30" s="143" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="136" t="s">
         <v>76</v>
       </c>
@@ -7639,7 +7800,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -7658,15 +7819,15 @@
       <c r="G6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="305" t="s">
+      <c r="H6" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
@@ -7682,10 +7843,10 @@
       <c r="S6" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="Y6" s="181"/>
-      <c r="Z6" s="143"/>
-    </row>
-    <row r="7" spans="2:30" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6" s="180"/>
+      <c r="Z6" s="142"/>
+    </row>
+    <row r="7" spans="2:30" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -7704,15 +7865,15 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="306" t="s">
+      <c r="H7" s="303" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
@@ -7728,180 +7889,180 @@
       <c r="S7" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="143"/>
-    </row>
-    <row r="8" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
+      <c r="Y7" s="180"/>
+      <c r="Z7" s="142"/>
+    </row>
+    <row r="8" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_HC</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="166" t="str">
         <f>SEC_Processes!E10</f>
         <v>Existing Hard Coal Power Plants</v>
       </c>
-      <c r="D8" s="250" t="s">
+      <c r="D8" s="249" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="250" t="str">
+      <c r="E8" s="249" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="244">
+      <c r="F8" s="243">
         <f>(BALANCE!E9*3.6/10^3)/(BALANCE!G9*BALANCE!H9/10^6)</f>
         <v>0.37835241091502259</v>
       </c>
-      <c r="G8" s="245">
+      <c r="G8" s="244">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="244">
+      <c r="H8" s="243">
         <f>BALANCE!D9/1000</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="I8" s="244">
+      <c r="I8" s="243">
         <v>13.973599999999999</v>
       </c>
-      <c r="J8" s="244">
+      <c r="J8" s="243">
         <v>9.5486000000000004</v>
       </c>
-      <c r="K8" s="244">
+      <c r="K8" s="243">
         <v>7.5076000000000001</v>
       </c>
-      <c r="L8" s="244">
+      <c r="L8" s="243">
         <v>5.294999999999999</v>
       </c>
-      <c r="M8" s="244">
+      <c r="M8" s="243">
         <v>3.5409999999999995</v>
       </c>
-      <c r="N8" s="244">
+      <c r="N8" s="243">
         <v>0</v>
       </c>
-      <c r="O8" s="246">
+      <c r="O8" s="245">
         <v>1</v>
       </c>
-      <c r="P8" s="246">
+      <c r="P8" s="245">
         <f>ROUNDUP((BALANCE!E9/BALANCE!D9*1000/8760),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q8" s="245">
+      <c r="Q8" s="244">
         <f>P8*1.25</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="R8" s="246">
+      <c r="R8" s="245">
         <f>44*4.5</f>
         <v>198</v>
       </c>
-      <c r="S8" s="245">
+      <c r="S8" s="244">
         <f>3.4/3.6*4.5</f>
         <v>4.25</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="196" t="str">
+    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="195" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_BC</v>
       </c>
-      <c r="C9" s="196" t="str">
+      <c r="C9" s="195" t="str">
         <f>SEC_Processes!E11</f>
         <v>Existing Brown Coal Power Plants</v>
       </c>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="263" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="251" t="str">
+      <c r="E9" s="250" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="247">
+      <c r="F9" s="246">
         <f>(BALANCE!E10*3.6/10^3)/(BALANCE!G10*BALANCE!H10/10^6)</f>
         <v>0.34425649711369494</v>
       </c>
-      <c r="G9" s="248">
+      <c r="G9" s="247">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="247">
+      <c r="H9" s="246">
         <f>BALANCE!D10/1000</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="I9" s="247">
+      <c r="I9" s="246">
         <v>7.5307599999999999</v>
       </c>
-      <c r="J9" s="247">
+      <c r="J9" s="246">
         <v>7.1887599999999994</v>
       </c>
-      <c r="K9" s="247">
+      <c r="K9" s="246">
         <v>3.145</v>
       </c>
-      <c r="L9" s="247">
+      <c r="L9" s="246">
         <v>1.4890000000000001</v>
       </c>
-      <c r="M9" s="247">
+      <c r="M9" s="246">
         <v>0.89</v>
       </c>
-      <c r="N9" s="247">
+      <c r="N9" s="246">
         <v>0</v>
       </c>
-      <c r="O9" s="249">
+      <c r="O9" s="248">
         <v>1</v>
       </c>
-      <c r="P9" s="249">
+      <c r="P9" s="248">
         <f>ROUNDUP((BALANCE!E10/BALANCE!D10*1000/8760),2)</f>
         <v>0.54</v>
       </c>
-      <c r="Q9" s="248">
+      <c r="Q9" s="247">
         <f>P9*1.25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="R9" s="249">
+      <c r="R9" s="248">
         <f>49*4.5</f>
         <v>220.5</v>
       </c>
-      <c r="S9" s="249">
+      <c r="S9" s="248">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="270" t="s">
+    <row r="13" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="268" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="U13" s="179"/>
-      <c r="V13" s="180"/>
-      <c r="Y13" s="180"/>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="180"/>
-      <c r="AB13" s="180"/>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="180"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="I14" s="174"/>
-      <c r="J14" s="174"/>
-      <c r="K14" s="174"/>
-      <c r="L14" s="174"/>
-      <c r="M14" s="174"/>
-      <c r="N14" s="174"/>
-      <c r="V14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
-      <c r="AA14" s="181"/>
-      <c r="AB14" s="181"/>
-      <c r="AC14" s="181"/>
-      <c r="AD14" s="181"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="231"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="183"/>
-      <c r="AB15" s="143"/>
-      <c r="AC15" s="143"/>
-      <c r="AD15" s="184"/>
-    </row>
-    <row r="16" spans="2:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="187"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="179"/>
+      <c r="Y13" s="179"/>
+      <c r="Z13" s="179"/>
+      <c r="AA13" s="179"/>
+      <c r="AB13" s="179"/>
+      <c r="AC13" s="179"/>
+      <c r="AD13" s="179"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="173"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
+      <c r="V14" s="180"/>
+      <c r="Y14" s="180"/>
+      <c r="Z14" s="180"/>
+      <c r="AA14" s="180"/>
+      <c r="AB14" s="180"/>
+      <c r="AC14" s="180"/>
+      <c r="AD14" s="180"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="230"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="182"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="183"/>
+    </row>
+    <row r="16" spans="2:30" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="136" t="s">
         <v>76</v>
       </c>
@@ -7944,15 +8105,15 @@
       <c r="O16" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="V16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="183"/>
-      <c r="AB16" s="143"/>
-      <c r="AC16" s="143"/>
-      <c r="AD16" s="184"/>
-    </row>
-    <row r="17" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="181"/>
+      <c r="Y16" s="181"/>
+      <c r="Z16" s="181"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="183"/>
+    </row>
+    <row r="17" spans="2:30" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="133" t="s">
         <v>140</v>
       </c>
@@ -7995,11 +8156,11 @@
       <c r="O17" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AD17" s="185"/>
-    </row>
-    <row r="18" spans="2:30" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y17" s="181"/>
+      <c r="Z17" s="181"/>
+      <c r="AD17" s="184"/>
+    </row>
+    <row r="18" spans="2:30" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="131" t="s">
         <v>213</v>
       </c>
@@ -8042,11 +8203,11 @@
       <c r="O18" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AD18" s="185"/>
-    </row>
-    <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="181"/>
+      <c r="AD18" s="184"/>
+    </row>
+    <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="127" t="s">
         <v>261</v>
       </c>
@@ -8082,7 +8243,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
       <c r="D20" s="124"/>
@@ -8106,7 +8267,7 @@
       <c r="N20" s="124"/>
       <c r="O20" s="124"/>
     </row>
-    <row r="21" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="122"/>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
@@ -8130,7 +8291,7 @@
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
     </row>
-    <row r="22" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
       <c r="D22" s="124"/>
@@ -8150,7 +8311,7 @@
       <c r="N22" s="124"/>
       <c r="O22" s="124"/>
     </row>
-    <row r="23" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="122"/>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
@@ -8170,7 +8331,7 @@
       <c r="N23" s="122"/>
       <c r="O23" s="122"/>
     </row>
-    <row r="24" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="124"/>
       <c r="C24" s="124"/>
       <c r="D24" s="124"/>
@@ -8190,7 +8351,7 @@
       <c r="N24" s="124"/>
       <c r="O24" s="124"/>
     </row>
-    <row r="25" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
@@ -8210,7 +8371,7 @@
       <c r="N25" s="122"/>
       <c r="O25" s="122"/>
     </row>
-    <row r="26" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="124"/>
       <c r="C26" s="124"/>
       <c r="D26" s="124"/>
@@ -8230,7 +8391,7 @@
       <c r="N26" s="124"/>
       <c r="O26" s="124"/>
     </row>
-    <row r="27" spans="2:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="118"/>
       <c r="C27" s="118"/>
       <c r="D27" s="118"/>
@@ -8265,7 +8426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B2:S16"/>
   <sheetViews>
@@ -8273,131 +8434,131 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="14" width="7.5546875" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="148"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="211"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="147"/>
-      <c r="S3" s="148"/>
-    </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="147"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="210"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="146"/>
+      <c r="S3" s="147"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-    </row>
-    <row r="5" spans="2:19" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="154"/>
+    </row>
+    <row r="5" spans="2:19" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="272" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
+      <c r="H5" s="280" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="282" t="s">
+      <c r="I5" s="280" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="282" t="s">
+      <c r="J5" s="280" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="282" t="s">
+      <c r="K5" s="280" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="282" t="s">
+      <c r="L5" s="280" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="282" t="s">
+      <c r="M5" s="280" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="282" t="s">
+      <c r="N5" s="280" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="O5" s="272" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="P5" s="272" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="274" t="s">
+      <c r="Q5" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="274" t="s">
+      <c r="R5" s="272" t="s">
         <v>139</v>
       </c>
       <c r="S5"/>
     </row>
-    <row r="6" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -8416,15 +8577,15 @@
       <c r="G6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="305" t="s">
+      <c r="H6" s="302" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
@@ -8438,7 +8599,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -8457,15 +8618,15 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="306" t="s">
+      <c r="H7" s="303" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
-      <c r="M7" s="306"/>
-      <c r="N7" s="306"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
       <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
@@ -8479,128 +8640,128 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="166" t="str">
+    <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="165" t="str">
         <f>SEC_Processes!D8</f>
         <v>ELE_EX_WIND-ON</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="166" t="str">
         <f>SEC_Processes!E8</f>
         <v>Existing Onshore Wind Turbines</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="167" t="str">
+      <c r="E8" s="166" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="169">
+      <c r="F8" s="168">
         <v>1</v>
       </c>
-      <c r="G8" s="167">
+      <c r="G8" s="166">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="169">
+      <c r="H8" s="168">
         <f>BALANCE!D13/1000</f>
         <v>6.2276934486274804</v>
       </c>
-      <c r="I8" s="169">
+      <c r="I8" s="168">
         <v>6.2982500000000003</v>
       </c>
-      <c r="J8" s="169">
+      <c r="J8" s="168">
         <v>5.8289999999999997</v>
       </c>
-      <c r="K8" s="169">
+      <c r="K8" s="168">
         <v>4.3650000000000002</v>
       </c>
-      <c r="L8" s="169">
+      <c r="L8" s="168">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M8" s="169">
+      <c r="M8" s="168">
         <v>0</v>
       </c>
-      <c r="N8" s="169">
+      <c r="N8" s="168">
         <v>0</v>
       </c>
-      <c r="O8" s="252">
+      <c r="O8" s="251">
         <v>0.05</v>
       </c>
-      <c r="P8" s="252">
+      <c r="P8" s="251">
         <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
         <v>0.29637457639806086</v>
       </c>
-      <c r="Q8" s="252">
+      <c r="Q8" s="251">
         <f>50*4.5</f>
         <v>225</v>
       </c>
-      <c r="R8" s="252">
+      <c r="R8" s="251">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="198" t="str">
+    <row r="9" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="197" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_PV</v>
       </c>
-      <c r="C9" s="198" t="str">
+      <c r="C9" s="197" t="str">
         <f>SEC_Processes!E9</f>
         <v>Existing Photovoltaics (all Types)</v>
       </c>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="197" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="198" t="str">
+      <c r="E9" s="197" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="230">
+      <c r="F9" s="229">
         <v>1</v>
       </c>
-      <c r="G9" s="198">
+      <c r="G9" s="197">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="230">
+      <c r="H9" s="229">
         <f>BALANCE!D14/1000</f>
         <v>3.9549600000000003</v>
       </c>
-      <c r="I9" s="230">
+      <c r="I9" s="229">
         <v>3.9549600000000003</v>
       </c>
-      <c r="J9" s="230">
+      <c r="J9" s="229">
         <v>3.9549600000000003</v>
       </c>
-      <c r="K9" s="230">
+      <c r="K9" s="229">
         <v>3.4839600000000002</v>
       </c>
-      <c r="L9" s="230">
+      <c r="L9" s="229">
         <v>2.197092</v>
       </c>
-      <c r="M9" s="230">
+      <c r="M9" s="229">
         <v>0.91022400000000003</v>
       </c>
-      <c r="N9" s="230">
+      <c r="N9" s="229">
         <v>0</v>
       </c>
-      <c r="O9" s="253">
+      <c r="O9" s="252">
         <v>0.05</v>
       </c>
-      <c r="P9" s="253">
+      <c r="P9" s="252">
         <v>1</v>
       </c>
-      <c r="Q9" s="253">
+      <c r="Q9" s="252">
         <f>16*4.5</f>
         <v>72</v>
       </c>
-      <c r="R9" s="253">
+      <c r="R9" s="252">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="143"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I16" s="273"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="142"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I16" s="271"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8615,7 +8776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz5"/>
   <dimension ref="B2:AH24"/>
   <sheetViews>
@@ -8623,151 +8784,151 @@
       <selection activeCell="AH8" sqref="AH8:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="4" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="19" width="15.33203125" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="29.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.109375" customWidth="1"/>
-    <col min="24" max="24" width="16.6640625" customWidth="1"/>
-    <col min="25" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="28" max="28" width="11.88671875" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
-    <col min="30" max="31" width="14.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="19" width="15.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="31" width="14.5703125" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="13.88671875" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" customWidth="1"/>
+    <col min="33" max="33" width="13.85546875" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+    <row r="2" spans="2:34" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="148"/>
-    </row>
-    <row r="3" spans="2:34" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="147"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="148"/>
-      <c r="W3" s="188" t="s">
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+    </row>
+    <row r="3" spans="2:34" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="146"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="W3" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="X3" s="188"/>
-    </row>
-    <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="X3" s="187"/>
+    </row>
+    <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="157"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="148"/>
-    </row>
-    <row r="5" spans="2:34" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="154"/>
+      <c r="Q4" s="154"/>
+      <c r="R4" s="147"/>
+    </row>
+    <row r="5" spans="2:34" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="272" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="274" t="s">
+      <c r="H5" s="272" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="272" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="272" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="274" t="s">
+      <c r="K5" s="272" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="282" t="s">
+      <c r="L5" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="282" t="s">
+      <c r="M5" s="280" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="274" t="s">
+      <c r="N5" s="272" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="274" t="s">
+      <c r="O5" s="272" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="274" t="s">
+      <c r="P5" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="274" t="s">
+      <c r="Q5" s="272" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="274"/>
+      <c r="R5" s="272"/>
       <c r="S5"/>
-      <c r="W5" s="203" t="s">
+      <c r="W5" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="X5" s="204"/>
-      <c r="Y5" s="204"/>
-      <c r="Z5" s="204"/>
-      <c r="AA5" s="204"/>
-      <c r="AB5" s="203"/>
-      <c r="AC5" s="204"/>
-      <c r="AD5" s="204"/>
-      <c r="AE5" s="204"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
-      <c r="AH5" s="204"/>
-    </row>
-    <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="203"/>
+      <c r="Y5" s="203"/>
+      <c r="Z5" s="203"/>
+      <c r="AA5" s="203"/>
+      <c r="AB5" s="202"/>
+      <c r="AC5" s="203"/>
+      <c r="AD5" s="203"/>
+      <c r="AE5" s="203"/>
+      <c r="AF5" s="204"/>
+      <c r="AG5" s="204"/>
+      <c r="AH5" s="203"/>
+    </row>
+    <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -8817,44 +8978,44 @@
         <v>149</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="W6" s="206" t="s">
+      <c r="W6" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="X6" s="206" t="s">
+      <c r="X6" s="205" t="s">
         <v>168</v>
       </c>
-      <c r="Y6" s="206" t="s">
+      <c r="Y6" s="205" t="s">
         <v>169</v>
       </c>
-      <c r="Z6" s="206" t="s">
+      <c r="Z6" s="205" t="s">
         <v>170</v>
       </c>
-      <c r="AA6" s="206" t="s">
+      <c r="AA6" s="205" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="206" t="s">
+      <c r="AB6" s="205" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="206" t="s">
+      <c r="AC6" s="205" t="s">
         <v>172</v>
       </c>
-      <c r="AD6" s="206" t="s">
+      <c r="AD6" s="205" t="s">
         <v>173</v>
       </c>
-      <c r="AE6" s="206" t="s">
+      <c r="AE6" s="205" t="s">
         <v>174</v>
       </c>
-      <c r="AF6" s="206" t="s">
+      <c r="AF6" s="205" t="s">
         <v>175</v>
       </c>
-      <c r="AG6" s="206" t="s">
+      <c r="AG6" s="205" t="s">
         <v>176</v>
       </c>
-      <c r="AH6" s="206" t="s">
+      <c r="AH6" s="205" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:34" ht="90" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -8904,401 +9065,417 @@
         <v>212</v>
       </c>
       <c r="R7" s="137"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="206"/>
-      <c r="Y7" s="206"/>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="206"/>
-      <c r="AB7" s="206"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="206"/>
-      <c r="AE7" s="206"/>
-      <c r="AF7" s="206"/>
-      <c r="AG7" s="206"/>
-      <c r="AH7" s="206"/>
-    </row>
-    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
+      <c r="W7" s="205"/>
+      <c r="X7" s="205"/>
+      <c r="Y7" s="205"/>
+      <c r="Z7" s="205"/>
+      <c r="AA7" s="205"/>
+      <c r="AB7" s="205"/>
+      <c r="AC7" s="205"/>
+      <c r="AD7" s="205"/>
+      <c r="AE7" s="205"/>
+      <c r="AF7" s="205"/>
+      <c r="AG7" s="205"/>
+      <c r="AH7" s="205"/>
+    </row>
+    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="166" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="166" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="232">
+      <c r="E8" s="166"/>
+      <c r="F8" s="231">
         <f>(L8*K8*O8)/(BALANCE!G11*BALANCE!H11/10^6)</f>
         <v>0.24771097483306254</v>
       </c>
-      <c r="G8" s="233">
+      <c r="G8" s="232">
         <f>BALANCE!F11/(3.6*BALANCE!E11)</f>
         <v>2.3407644073796177</v>
       </c>
-      <c r="H8" s="234"/>
-      <c r="I8" s="234"/>
-      <c r="J8" s="234"/>
-      <c r="K8" s="234">
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="233">
         <v>31.536000000000001</v>
       </c>
-      <c r="L8" s="232">
+      <c r="L8" s="231">
         <f>BALANCE!D11/1000</f>
         <v>4.0946000000000025</v>
       </c>
-      <c r="M8" s="232">
+      <c r="M8" s="231">
         <v>0</v>
       </c>
-      <c r="N8" s="233">
+      <c r="N8" s="232">
         <v>1</v>
       </c>
-      <c r="O8" s="233">
+      <c r="O8" s="232">
         <f>BALANCE!E11/BALANCE!D11*1000/8760</f>
         <v>0.45331450019816694</v>
       </c>
-      <c r="P8" s="233">
+      <c r="P8" s="232">
         <f>48*4.5</f>
         <v>216</v>
       </c>
-      <c r="Q8" s="233">
+      <c r="Q8" s="232">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
-      <c r="R8" s="234"/>
-      <c r="U8" s="307" t="str">
+      <c r="R8" s="233"/>
+      <c r="U8" s="304" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="308" t="str">
+      <c r="V8" s="306" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="W8" s="307">
+      <c r="W8" s="304">
         <f>L8*K8*O8</f>
         <v>58.53528</v>
       </c>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="309">
+      <c r="X8" s="304"/>
+      <c r="Y8" s="305">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
-      <c r="Z8" s="307">
+      <c r="Z8" s="304">
         <f>Y8*3.6</f>
         <v>58.535279999999993</v>
       </c>
-      <c r="AA8" s="307"/>
-      <c r="AB8" s="307"/>
-      <c r="AC8" s="309">
+      <c r="AA8" s="304"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="305">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
-      <c r="AD8" s="307">
+      <c r="AD8" s="304">
         <f>Z8+AC8</f>
         <v>195.55257999999998</v>
       </c>
-      <c r="AE8" s="307">
+      <c r="AE8" s="304">
         <f>Z8/AC8</f>
         <v>0.42721087045212541</v>
       </c>
-      <c r="AF8" s="307">
+      <c r="AF8" s="304">
         <f>W8/F8</f>
         <v>236.30475007999996</v>
       </c>
-      <c r="AG8" s="307">
+      <c r="AG8" s="304">
         <f>AF8*10^6/(BALANCE!H11/1000)/1000</f>
         <v>11204.8</v>
       </c>
-      <c r="AH8" s="307">
+      <c r="AH8" s="304">
         <f>AD8/AF8</f>
         <v>0.82754400803960348</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="167" t="str">
+    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="166" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="255"/>
-      <c r="O9" s="255"/>
-      <c r="P9" s="255"/>
-      <c r="Q9" s="255"/>
-      <c r="R9" s="166"/>
-      <c r="U9" s="307"/>
-      <c r="V9" s="308"/>
-      <c r="W9" s="307"/>
-      <c r="X9" s="307"/>
-      <c r="Y9" s="309"/>
-      <c r="Z9" s="307"/>
-      <c r="AA9" s="307"/>
-      <c r="AB9" s="307"/>
-      <c r="AC9" s="309"/>
-      <c r="AD9" s="307"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="307"/>
-      <c r="AH9" s="307"/>
-    </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="167" t="str">
-        <f>SEC_Comm!C11</f>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="254"/>
+      <c r="O9" s="254"/>
+      <c r="P9" s="254"/>
+      <c r="Q9" s="254"/>
+      <c r="R9" s="165"/>
+      <c r="U9" s="304"/>
+      <c r="V9" s="306"/>
+      <c r="W9" s="304"/>
+      <c r="X9" s="304"/>
+      <c r="Y9" s="305"/>
+      <c r="Z9" s="304"/>
+      <c r="AA9" s="304"/>
+      <c r="AB9" s="304"/>
+      <c r="AC9" s="305"/>
+      <c r="AD9" s="304"/>
+      <c r="AE9" s="304"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="304"/>
+      <c r="AH9" s="304"/>
+    </row>
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="166" t="str">
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F10" s="178"/>
-      <c r="G10" s="178"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="178"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="255"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="166"/>
-      <c r="U10" s="307"/>
-      <c r="V10" s="308"/>
-      <c r="W10" s="307"/>
-      <c r="X10" s="307"/>
-      <c r="Y10" s="309"/>
-      <c r="Z10" s="307"/>
-      <c r="AA10" s="307"/>
-      <c r="AB10" s="307"/>
-      <c r="AC10" s="309"/>
-      <c r="AD10" s="307"/>
-      <c r="AE10" s="307"/>
-      <c r="AF10" s="307"/>
-      <c r="AG10" s="307"/>
-      <c r="AH10" s="307"/>
-    </row>
-    <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="190" t="str">
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="254"/>
+      <c r="P10" s="254"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="165"/>
+      <c r="U10" s="304"/>
+      <c r="V10" s="306"/>
+      <c r="W10" s="304"/>
+      <c r="X10" s="304"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="304"/>
+      <c r="AA10" s="304"/>
+      <c r="AB10" s="304"/>
+      <c r="AC10" s="305"/>
+      <c r="AD10" s="304"/>
+      <c r="AE10" s="304"/>
+      <c r="AF10" s="304"/>
+      <c r="AG10" s="304"/>
+      <c r="AH10" s="304"/>
+    </row>
+    <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="189" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="C11" s="190" t="str">
+      <c r="C11" s="189" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="D11" s="190" t="s">
+      <c r="D11" s="189" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="236">
+      <c r="E11" s="189"/>
+      <c r="F11" s="235">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G11" s="235"/>
-      <c r="H11" s="254">
+      <c r="G11" s="234"/>
+      <c r="H11" s="253">
         <v>0.2</v>
       </c>
-      <c r="I11" s="254">
+      <c r="I11" s="253">
         <v>0.7</v>
       </c>
-      <c r="J11" s="235">
+      <c r="J11" s="234">
         <v>0.25</v>
       </c>
-      <c r="K11" s="235">
+      <c r="K11" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L11" s="236">
+      <c r="L11" s="235">
         <f>BALANCE!D12/1000</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="M11" s="236">
+      <c r="M11" s="235">
         <f>L11</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="N11" s="254">
+      <c r="N11" s="253">
         <v>1</v>
       </c>
-      <c r="O11" s="254">
+      <c r="O11" s="253">
         <v>0.59850000000000003</v>
       </c>
-      <c r="P11" s="254">
+      <c r="P11" s="253">
         <v>97.199999999999989</v>
       </c>
-      <c r="Q11" s="254">
+      <c r="Q11" s="253">
         <v>2.6999999999999997</v>
       </c>
-      <c r="R11" s="235"/>
-      <c r="U11" s="307" t="str">
+      <c r="R11" s="234"/>
+      <c r="U11" s="304" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="308" t="str">
+      <c r="V11" s="306" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="W11" s="307">
+      <c r="W11" s="304">
         <f>L11*K11*O11</f>
         <v>31.265271324000008</v>
       </c>
-      <c r="X11" s="307">
+      <c r="X11" s="304">
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="309">
+      <c r="Y11" s="305">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
-      <c r="Z11" s="307">
+      <c r="Z11" s="304">
         <f>Y11*3.6</f>
         <v>26.872560000000004</v>
       </c>
-      <c r="AA11" s="307">
+      <c r="AA11" s="304">
         <f>X11-Y11</f>
         <v>1.2201975900000015</v>
       </c>
-      <c r="AB11" s="307">
+      <c r="AB11" s="304">
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="309">
+      <c r="AC11" s="305">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
-      <c r="AD11" s="307">
+      <c r="AD11" s="304">
         <f>Z11+AC11</f>
         <v>44.443405296000023</v>
       </c>
-      <c r="AE11" s="307">
+      <c r="AE11" s="304">
         <f>Z11/AC11</f>
         <v>1.5293834501017149</v>
       </c>
-      <c r="AF11" s="307">
+      <c r="AF11" s="304">
         <f>W11/F11</f>
         <v>56.845947861818189</v>
       </c>
-      <c r="AG11" s="307">
+      <c r="AG11" s="304">
         <f>AF11*10^6/(BALANCE!J12/1000)/1000</f>
         <v>1750.8839086401019</v>
       </c>
-      <c r="AH11" s="307">
+      <c r="AH11" s="304">
         <f>AD11/AF11</f>
         <v>0.78182187064649855</v>
       </c>
     </row>
-    <row r="12" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="192"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="190" t="str">
+    <row r="12" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="191"/>
+      <c r="E12" s="189" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="194"/>
-      <c r="M12" s="194"/>
-      <c r="N12" s="192"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="192"/>
-      <c r="R12" s="192"/>
-      <c r="U12" s="307"/>
-      <c r="V12" s="308"/>
-      <c r="W12" s="307"/>
-      <c r="X12" s="307"/>
-      <c r="Y12" s="309"/>
-      <c r="Z12" s="307"/>
-      <c r="AA12" s="307"/>
-      <c r="AB12" s="307"/>
-      <c r="AC12" s="309"/>
-      <c r="AD12" s="307"/>
-      <c r="AE12" s="307"/>
-      <c r="AF12" s="307"/>
-      <c r="AG12" s="307"/>
-      <c r="AH12" s="307"/>
-    </row>
-    <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="195"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196" t="str">
-        <f>SEC_Comm!C11</f>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="191"/>
+      <c r="U12" s="304"/>
+      <c r="V12" s="306"/>
+      <c r="W12" s="304"/>
+      <c r="X12" s="304"/>
+      <c r="Y12" s="305"/>
+      <c r="Z12" s="304"/>
+      <c r="AA12" s="304"/>
+      <c r="AB12" s="304"/>
+      <c r="AC12" s="305"/>
+      <c r="AD12" s="304"/>
+      <c r="AE12" s="304"/>
+      <c r="AF12" s="304"/>
+      <c r="AG12" s="304"/>
+      <c r="AH12" s="304"/>
+    </row>
+    <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="194"/>
+      <c r="C13" s="194"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="195" t="str">
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F13" s="197"/>
-      <c r="G13" s="197"/>
-      <c r="H13" s="197"/>
-      <c r="I13" s="197"/>
-      <c r="J13" s="197"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
-      <c r="U13" s="307"/>
-      <c r="V13" s="308"/>
-      <c r="W13" s="307"/>
-      <c r="X13" s="307"/>
-      <c r="Y13" s="309"/>
-      <c r="Z13" s="307"/>
-      <c r="AA13" s="307"/>
-      <c r="AB13" s="307"/>
-      <c r="AC13" s="309"/>
-      <c r="AD13" s="307"/>
-      <c r="AE13" s="307"/>
-      <c r="AF13" s="307"/>
-      <c r="AG13" s="307"/>
-      <c r="AH13" s="307"/>
-    </row>
-    <row r="18" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC18" s="143"/>
-      <c r="AD18" s="143"/>
-      <c r="AE18" s="143"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="182"/>
-    </row>
-    <row r="19" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC19" s="143"/>
-      <c r="AD19" s="143"/>
-      <c r="AE19" s="143"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="182"/>
-    </row>
-    <row r="20" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AC20" s="143"/>
-      <c r="AD20" s="143"/>
-      <c r="AE20" s="143"/>
-      <c r="AH20" s="182"/>
-    </row>
-    <row r="21" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AD21" s="143"/>
-      <c r="AE21" s="143"/>
-      <c r="AG21" s="182"/>
-      <c r="AH21" s="182"/>
-    </row>
-    <row r="24" spans="29:34" x14ac:dyDescent="0.25">
-      <c r="AH24" s="187"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="U13" s="304"/>
+      <c r="V13" s="306"/>
+      <c r="W13" s="304"/>
+      <c r="X13" s="304"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="304"/>
+      <c r="AA13" s="304"/>
+      <c r="AB13" s="304"/>
+      <c r="AC13" s="305"/>
+      <c r="AD13" s="304"/>
+      <c r="AE13" s="304"/>
+      <c r="AF13" s="304"/>
+      <c r="AG13" s="304"/>
+      <c r="AH13" s="304"/>
+    </row>
+    <row r="18" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC18" s="142"/>
+      <c r="AD18" s="142"/>
+      <c r="AE18" s="142"/>
+      <c r="AF18" s="181"/>
+      <c r="AG18" s="181"/>
+      <c r="AH18" s="181"/>
+    </row>
+    <row r="19" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
+      <c r="AF19" s="181"/>
+      <c r="AG19" s="181"/>
+      <c r="AH19" s="181"/>
+    </row>
+    <row r="20" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="142"/>
+      <c r="AE20" s="142"/>
+      <c r="AH20" s="181"/>
+    </row>
+    <row r="21" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AD21" s="142"/>
+      <c r="AE21" s="142"/>
+      <c r="AG21" s="181"/>
+      <c r="AH21" s="181"/>
+    </row>
+    <row r="24" spans="29:34" x14ac:dyDescent="0.2">
+      <c r="AH24" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
     <mergeCell ref="AF11:AF13"/>
@@ -9311,22 +9488,6 @@
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
     <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AG11:AG13"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -9340,7 +9501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz6"/>
   <dimension ref="B1:M8"/>
   <sheetViews>
@@ -9348,104 +9509,104 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I1" s="141"/>
       <c r="L1" s="141"/>
     </row>
-    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="147"/>
-      <c r="M3" s="148"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="147"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="146"/>
+      <c r="M3" s="147"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-    </row>
-    <row r="5" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+    </row>
+    <row r="5" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="274" t="s">
+      <c r="G5" s="272" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="282" t="s">
+      <c r="H5" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="274" t="s">
+      <c r="I5" s="272" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="274" t="s">
+      <c r="J5" s="272" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="274" t="s">
+      <c r="K5" s="272" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="274" t="s">
+      <c r="L5" s="272" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="274" t="s">
+      <c r="M5" s="272" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -9483,7 +9644,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -9502,10 +9663,10 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="283" t="s">
+      <c r="H7" s="281" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="283" t="s">
+      <c r="I7" s="281" t="s">
         <v>205</v>
       </c>
       <c r="J7" s="137" t="s">
@@ -9521,48 +9682,48 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="173" t="str">
+    <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="172" t="str">
         <f>SEC_Processes!D14</f>
         <v>HPL_EX_HC</v>
       </c>
-      <c r="C8" s="173" t="str">
+      <c r="C8" s="172" t="str">
         <f>SEC_Processes!E14</f>
         <v>Existing Hard Coal Heat Only Plants</v>
       </c>
-      <c r="D8" s="173" t="s">
+      <c r="D8" s="172" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="173" t="str">
-        <f>SEC_Comm!C11</f>
+      <c r="E8" s="172" t="str">
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F8" s="256">
+      <c r="F8" s="255">
         <f>(H8*G8*K8)/(BALANCE!G15*BALANCE!H15/10^6)</f>
         <v>0.90573900332985746</v>
       </c>
-      <c r="G8" s="202">
+      <c r="G8" s="201">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="173">
+      <c r="H8" s="172">
         <f>BALANCE!D15</f>
         <v>19.806000000000001</v>
       </c>
-      <c r="I8" s="173">
+      <c r="I8" s="172">
         <f>H8</f>
         <v>19.806000000000001</v>
       </c>
-      <c r="J8" s="201">
+      <c r="J8" s="200">
         <v>1</v>
       </c>
-      <c r="K8" s="201">
+      <c r="K8" s="200">
         <f>ROUNDUP((BALANCE!F15/1000)/(H8*G8),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8" s="263">
+      <c r="L8" s="261">
         <v>14.323</v>
       </c>
-      <c r="M8" s="263">
+      <c r="M8" s="261">
         <v>3.617</v>
       </c>
     </row>
@@ -9573,62 +9734,62 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz7"/>
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.33203125" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="270" t="s">
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="E2" s="146"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="151"/>
-      <c r="C3" s="145"/>
-      <c r="E3" s="146"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="156" t="s">
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="154"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="F4" s="153"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="165"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="164"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -9645,7 +9806,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -9662,60 +9823,104 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="192" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>TRANSF_HV-LV</v>
-      </c>
-      <c r="C8" s="192" t="str">
-        <f>SEC_Processes!E15</f>
-        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
-      </c>
-      <c r="D8" s="192" t="str">
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f>SEC_Processes!D17</f>
+        <v>TRANSF_HV-HV</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SEC_Processes!E17</f>
+        <v>Electricity Transformation and Distribution High Voltage to High Voltage</v>
+      </c>
+      <c r="D8" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="E8" s="192" t="str">
+      <c r="E8" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F8" s="271">
+        <f>BALANCE!E29</f>
+        <v>0.97706171756374371</v>
+      </c>
+      <c r="H8" s="1">
+        <f>1-F8</f>
+        <v>2.2938282436256285E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f>SEC_Processes!D18</f>
+        <v>TRANSF_MV-MV</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SEC_Processes!E18</f>
+        <v>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_MV</v>
+      </c>
+      <c r="E9" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_MV</v>
+      </c>
+      <c r="F9" s="271">
+        <f>BALANCE!E30</f>
+        <v>0.9764416403645515</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f>SEC_Processes!D19</f>
+        <v>TRANSF_LV-LV</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SEC_Processes!E19</f>
+        <v>Electricity Transformation and Distribution Low Voltage to Low Voltage</v>
+      </c>
+      <c r="D10" t="str">
         <f>SEC_Comm!C10</f>
         <v>ELEC_LV</v>
       </c>
-      <c r="F8" s="257">
-        <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
-        <v>0.90779680266244211</v>
-      </c>
-      <c r="H8" s="1">
-        <f>1-F8</f>
-        <v>9.2203197337557885E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="173" t="str">
+      <c r="E10" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELEC_LV</v>
+      </c>
+      <c r="F10" s="271">
+        <f>BALANCE!E31</f>
+        <v>0.9515253427786764</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="172" t="str">
         <f>SEC_Processes!D16</f>
         <v>TRANSF_HT-LT</v>
       </c>
-      <c r="C9" s="173" t="str">
+      <c r="C11" s="172" t="str">
         <f>SEC_Processes!E16</f>
         <v>Heat Transformation and Distribution</v>
       </c>
-      <c r="D9" s="177" t="str">
-        <f>SEC_Comm!C11</f>
+      <c r="D11" s="176" t="str">
+        <f>SEC_Comm!C14</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="E9" s="177" t="str">
-        <f>SEC_Comm!C12</f>
+      <c r="E11" s="176" t="str">
+        <f>SEC_Comm!C15</f>
         <v>HEAT_LT</v>
       </c>
-      <c r="F9" s="258">
+      <c r="F11" s="256">
         <f>BALANCE!E32</f>
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E15" s="143"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="142"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9724,7 +9929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz8"/>
   <dimension ref="B2:H15"/>
   <sheetViews>
@@ -9732,160 +9937,160 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="188" t="s">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="160"/>
-      <c r="H3" s="160"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="158"/>
-      <c r="C4" s="156" t="s">
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="157"/>
+      <c r="C4" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="274" t="s">
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="274" t="s">
+      <c r="C5" s="272" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="274" t="s">
+      <c r="D5" s="272" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="274" t="s">
+      <c r="E5" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="274" t="s">
+      <c r="F5" s="272" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="266" t="s">
+      <c r="H5" s="264" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="305" t="s">
+      <c r="D6" s="302" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-    </row>
-    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+    </row>
+    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
       <c r="C7" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="306" t="s">
+      <c r="D7" s="303" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="167" t="str">
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_HC</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="259">
+      <c r="D8" s="257">
         <v>94.19</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="259"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="190" t="str">
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="189" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_BC</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C9" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260">
+      <c r="D9" s="258"/>
+      <c r="E9" s="258">
         <v>109.08</v>
       </c>
-      <c r="F9" s="260"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="167" t="str">
+      <c r="F9" s="258"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="166" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="259">
+      <c r="D10" s="257">
         <v>94.19</v>
       </c>
-      <c r="E10" s="259"/>
-      <c r="F10" s="259"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="190" t="str">
+      <c r="E10" s="257"/>
+      <c r="F10" s="257"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="189" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="190" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260">
+      <c r="D11" s="258"/>
+      <c r="E11" s="258"/>
+      <c r="F11" s="258">
         <v>55.82</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="173" t="str">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="172" t="str">
         <f>SEC_Processes!D14</f>
         <v>HPL_EX_HC</v>
       </c>
-      <c r="C12" s="175" t="s">
+      <c r="C12" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="261">
+      <c r="D12" s="259">
         <v>94.19</v>
       </c>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
-      <c r="H12" s="143"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="260"/>
+      <c r="F12" s="260"/>
+      <c r="H12" s="142"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
         <v>192</v>
       </c>
@@ -10078,12 +10283,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -10092,11 +10291,40 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0711598C-D257-4C18-AE2A-3557063E1EC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0711598C-D257-4C18-AE2A-3557063E1EC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10105,12 +10333,4 @@
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -6675,7 +6675,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -9738,7 +9738,7 @@
   <sheetPr codeName="Arkusz7"/>
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="RES" sheetId="133" r:id="rId5"/>
     <sheet name="CHP" sheetId="132" r:id="rId6"/>
     <sheet name="HPL" sheetId="137" r:id="rId7"/>
-    <sheet name="T&amp;D" sheetId="136" r:id="rId8"/>
-    <sheet name="EMI" sheetId="134" r:id="rId9"/>
+    <sheet name="EMI" sheetId="134" r:id="rId8"/>
+    <sheet name="T&amp;D" sheetId="136" r:id="rId9"/>
     <sheet name="SCHEM_ELC" sheetId="139" r:id="rId10"/>
   </sheets>
   <externalReferences>
@@ -528,6 +528,8 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -542,6 +544,8 @@
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3741,11 +3745,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3800,7 +3804,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3895,7 +3899,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3966,7 +3970,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4037,7 +4041,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4108,7 +4112,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,7 +4183,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4250,7 +4254,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4321,7 +4325,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4392,7 +4396,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4463,7 +4467,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4534,7 +4538,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4605,7 +4609,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5164,7 +5168,7 @@
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7112,7 +7116,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7429,10 +7433,10 @@
         <v>92</v>
       </c>
       <c r="D15" s="277" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="E15" s="277" t="s">
-        <v>108</v>
+        <v>312</v>
       </c>
       <c r="F15" s="276" t="s">
         <v>49</v>
@@ -7446,30 +7450,30 @@
       <c r="I15" s="276"/>
       <c r="J15" s="276"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="278" t="s">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="275" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="278" t="s">
+      <c r="C16" s="276" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="279" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="279" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="278" t="s">
+      <c r="D16" s="277" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="277" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="276" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="278" t="s">
+      <c r="G16" s="276" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="278" t="s">
+      <c r="H16" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="278"/>
-      <c r="J16" s="278"/>
+      <c r="I16" s="276"/>
+      <c r="J16" s="276"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="275" t="s">
@@ -7479,10 +7483,10 @@
         <v>92</v>
       </c>
       <c r="D17" s="277" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="E17" s="277" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F17" s="276" t="s">
         <v>49</v>
@@ -7504,10 +7508,10 @@
         <v>92</v>
       </c>
       <c r="D18" s="277" t="s">
-        <v>316</v>
+        <v>107</v>
       </c>
       <c r="E18" s="277" t="s">
-        <v>319</v>
+        <v>108</v>
       </c>
       <c r="F18" s="276" t="s">
         <v>49</v>
@@ -7521,30 +7525,30 @@
       <c r="I18" s="276"/>
       <c r="J18" s="276"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="275" t="s">
+    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="276" t="s">
+      <c r="C19" s="278" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="277" t="s">
-        <v>317</v>
-      </c>
-      <c r="E19" s="277" t="s">
-        <v>318</v>
-      </c>
-      <c r="F19" s="276" t="s">
+      <c r="D19" s="279" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="279" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="276" t="s">
+      <c r="G19" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="H19" s="276" t="s">
+      <c r="H19" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="276"/>
-      <c r="J19" s="276"/>
+      <c r="I19" s="278"/>
+      <c r="J19" s="278"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="301" t="s">
@@ -9132,7 +9136,7 @@
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="306" t="str">
+      <c r="V8" s="305" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
@@ -9141,7 +9145,7 @@
         <v>58.53528</v>
       </c>
       <c r="X8" s="304"/>
-      <c r="Y8" s="305">
+      <c r="Y8" s="306">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
@@ -9151,7 +9155,7 @@
       </c>
       <c r="AA8" s="304"/>
       <c r="AB8" s="304"/>
-      <c r="AC8" s="305">
+      <c r="AC8" s="306">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
@@ -9198,14 +9202,14 @@
       <c r="Q9" s="254"/>
       <c r="R9" s="165"/>
       <c r="U9" s="304"/>
-      <c r="V9" s="306"/>
+      <c r="V9" s="305"/>
       <c r="W9" s="304"/>
       <c r="X9" s="304"/>
-      <c r="Y9" s="305"/>
+      <c r="Y9" s="306"/>
       <c r="Z9" s="304"/>
       <c r="AA9" s="304"/>
       <c r="AB9" s="304"/>
-      <c r="AC9" s="305"/>
+      <c r="AC9" s="306"/>
       <c r="AD9" s="304"/>
       <c r="AE9" s="304"/>
       <c r="AF9" s="304"/>
@@ -9234,14 +9238,14 @@
       <c r="Q10" s="254"/>
       <c r="R10" s="165"/>
       <c r="U10" s="304"/>
-      <c r="V10" s="306"/>
+      <c r="V10" s="305"/>
       <c r="W10" s="304"/>
       <c r="X10" s="304"/>
-      <c r="Y10" s="305"/>
+      <c r="Y10" s="306"/>
       <c r="Z10" s="304"/>
       <c r="AA10" s="304"/>
       <c r="AB10" s="304"/>
-      <c r="AC10" s="305"/>
+      <c r="AC10" s="306"/>
       <c r="AD10" s="304"/>
       <c r="AE10" s="304"/>
       <c r="AF10" s="304"/>
@@ -9302,7 +9306,7 @@
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="306" t="str">
+      <c r="V11" s="305" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
@@ -9314,7 +9318,7 @@
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="305">
+      <c r="Y11" s="306">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
@@ -9330,7 +9334,7 @@
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="305">
+      <c r="AC11" s="306">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
@@ -9377,14 +9381,14 @@
       <c r="Q12" s="191"/>
       <c r="R12" s="191"/>
       <c r="U12" s="304"/>
-      <c r="V12" s="306"/>
+      <c r="V12" s="305"/>
       <c r="W12" s="304"/>
       <c r="X12" s="304"/>
-      <c r="Y12" s="305"/>
+      <c r="Y12" s="306"/>
       <c r="Z12" s="304"/>
       <c r="AA12" s="304"/>
       <c r="AB12" s="304"/>
-      <c r="AC12" s="305"/>
+      <c r="AC12" s="306"/>
       <c r="AD12" s="304"/>
       <c r="AE12" s="304"/>
       <c r="AF12" s="304"/>
@@ -9413,14 +9417,14 @@
       <c r="Q13" s="194"/>
       <c r="R13" s="194"/>
       <c r="U13" s="304"/>
-      <c r="V13" s="306"/>
+      <c r="V13" s="305"/>
       <c r="W13" s="304"/>
       <c r="X13" s="304"/>
-      <c r="Y13" s="305"/>
+      <c r="Y13" s="306"/>
       <c r="Z13" s="304"/>
       <c r="AA13" s="304"/>
       <c r="AB13" s="304"/>
-      <c r="AC13" s="305"/>
+      <c r="AC13" s="306"/>
       <c r="AD13" s="304"/>
       <c r="AE13" s="304"/>
       <c r="AF13" s="304"/>
@@ -9460,22 +9464,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="W8:W10"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="W11:W13"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="AH8:AH10"/>
-    <mergeCell ref="AH11:AH13"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AG8:AG10"/>
-    <mergeCell ref="AG11:AG13"/>
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AE11:AE13"/>
     <mergeCell ref="AF11:AF13"/>
@@ -9488,6 +9476,22 @@
     <mergeCell ref="AA11:AA13"/>
     <mergeCell ref="AB11:AB13"/>
     <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AH8:AH10"/>
+    <mergeCell ref="AH11:AH13"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AG8:AG10"/>
+    <mergeCell ref="AG11:AG13"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="W8:W10"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="W11:W13"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="Y11:Y13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -9734,201 +9738,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="160"/>
-      <c r="E2" s="145"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="153"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="272" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="272" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="272" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="272" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="164"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="137" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f>SEC_Processes!D17</f>
-        <v>TRANSF_HV-HV</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SEC_Processes!E17</f>
-        <v>Electricity Transformation and Distribution High Voltage to High Voltage</v>
-      </c>
-      <c r="D8" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="E8" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="F8" s="271">
-        <f>BALANCE!E29</f>
-        <v>0.97706171756374371</v>
-      </c>
-      <c r="H8" s="1">
-        <f>1-F8</f>
-        <v>2.2938282436256285E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="str">
-        <f>SEC_Processes!D18</f>
-        <v>TRANSF_MV-MV</v>
-      </c>
-      <c r="C9" t="str">
-        <f>SEC_Processes!E18</f>
-        <v>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</v>
-      </c>
-      <c r="D9" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELEC_MV</v>
-      </c>
-      <c r="E9" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELEC_MV</v>
-      </c>
-      <c r="F9" s="271">
-        <f>BALANCE!E30</f>
-        <v>0.9764416403645515</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="str">
-        <f>SEC_Processes!D19</f>
-        <v>TRANSF_LV-LV</v>
-      </c>
-      <c r="C10" t="str">
-        <f>SEC_Processes!E19</f>
-        <v>Electricity Transformation and Distribution Low Voltage to Low Voltage</v>
-      </c>
-      <c r="D10" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="E10" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="F10" s="271">
-        <f>BALANCE!E31</f>
-        <v>0.9515253427786764</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="172" t="str">
-        <f>SEC_Processes!D16</f>
-        <v>TRANSF_HT-LT</v>
-      </c>
-      <c r="C11" s="172" t="str">
-        <f>SEC_Processes!E16</f>
-        <v>Heat Transformation and Distribution</v>
-      </c>
-      <c r="D11" s="176" t="str">
-        <f>SEC_Comm!C14</f>
-        <v>HEAT_HT</v>
-      </c>
-      <c r="E11" s="176" t="str">
-        <f>SEC_Comm!C15</f>
-        <v>HEAT_LT</v>
-      </c>
-      <c r="F11" s="256">
-        <f>BALANCE!E32</f>
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="142"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Arkusz8"/>
   <dimension ref="B2:H15"/>
@@ -10105,7 +9914,217 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Arkusz7"/>
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="53.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="268" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="160"/>
+      <c r="E2" s="145"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="150"/>
+      <c r="C3" s="144"/>
+      <c r="E3" s="145"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="153"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="272" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="272" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="272" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="272" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="272" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="164"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" t="str">
+        <f>SEC_Processes!D15</f>
+        <v>TRANSF_HV-HV</v>
+      </c>
+      <c r="C8" t="str">
+        <f>SEC_Processes!E15</f>
+        <v>Electricity Transformation and Distribution High Voltage to High Voltage</v>
+      </c>
+      <c r="D8" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E8" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F8" s="271">
+        <f>BALANCE!E29</f>
+        <v>0.97706171756374371</v>
+      </c>
+      <c r="H8" s="1">
+        <f>1-F8</f>
+        <v>2.2938282436256285E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="str">
+        <f>SEC_Processes!D16</f>
+        <v>TRANSF_MV-MV</v>
+      </c>
+      <c r="C9" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</v>
+      </c>
+      <c r="D9" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_MV</v>
+      </c>
+      <c r="E9" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELEC_MV</v>
+      </c>
+      <c r="F9" s="271">
+        <f>BALANCE!E30</f>
+        <v>0.9764416403645515</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="str">
+        <f>SEC_Processes!D17</f>
+        <v>TRANSF_LV-LV</v>
+      </c>
+      <c r="C10" t="str">
+        <f>SEC_Processes!E17</f>
+        <v>Electricity Transformation and Distribution Low Voltage to Low Voltage</v>
+      </c>
+      <c r="D10" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELEC_LV</v>
+      </c>
+      <c r="E10" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELEC_LV</v>
+      </c>
+      <c r="F10" s="271">
+        <f>BALANCE!E31</f>
+        <v>0.9515253427786764</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="172" t="str">
+        <f>SEC_Processes!D19</f>
+        <v>TRANSF_HT-LT</v>
+      </c>
+      <c r="C11" s="172" t="str">
+        <f>SEC_Processes!E19</f>
+        <v>Heat Transformation and Distribution</v>
+      </c>
+      <c r="D11" s="176" t="str">
+        <f>SEC_Comm!C14</f>
+        <v>HEAT_HT</v>
+      </c>
+      <c r="E11" s="176" t="str">
+        <f>SEC_Comm!C15</f>
+        <v>HEAT_LT</v>
+      </c>
+      <c r="F11" s="256">
+        <f>BALANCE!E32</f>
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="E15" s="142"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -10282,22 +10301,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
+    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0711598C-D257-4C18-AE2A-3557063E1EC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10314,23 +10337,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
-    <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_ELC_V01.xlsx
+++ b/VT_Model_ELC_V01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr showObjects="placeholders" codeName="Ten_skoroszyt"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\STUDENTS_MID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777B64-FD38-4D0A-98E8-E4DA9A1CD4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="901"/>
+    <workbookView xWindow="3840" yWindow="3840" windowWidth="34560" windowHeight="13644" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BALANCE" sheetId="138" r:id="rId1"/>
@@ -19,8 +20,8 @@
     <sheet name="RES" sheetId="133" r:id="rId5"/>
     <sheet name="CHP" sheetId="132" r:id="rId6"/>
     <sheet name="HPL" sheetId="137" r:id="rId7"/>
-    <sheet name="EMI" sheetId="134" r:id="rId8"/>
-    <sheet name="T&amp;D" sheetId="136" r:id="rId9"/>
+    <sheet name="T&amp;D" sheetId="136" r:id="rId8"/>
+    <sheet name="EMI" sheetId="134" r:id="rId9"/>
     <sheet name="SCHEM_ELC" sheetId="139" r:id="rId10"/>
   </sheets>
   <externalReferences>
@@ -30,7 +31,7 @@
     <definedName name="_Order1">0</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,13 +48,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0">
+    <comment ref="G5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -245,13 +246,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="H5" authorId="0" shapeId="0">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="1" shapeId="0">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -371,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0" shapeId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -439,12 +440,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -458,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="0" shapeId="0">
+    <comment ref="C16" authorId="0" shapeId="0" xr:uid="{FEC38342-FAFB-468E-B86C-E896F94E4F07}">
       <text>
         <r>
           <rPr>
@@ -477,12 +478,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -501,14 +502,14 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
     <author>tc={70911FE4-4C4E-4558-8CD0-C1439EB30AC1}</author>
     <author>tc={E4F5F666-2BDB-4F8C-8784-8054A11A4221}</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -522,36 +523,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="X5" authorId="1" shapeId="0">
+    <comment ref="X5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Produkcja energii elektrycznej netto w pełnej kondensacji</t>
-        </r>
       </text>
     </comment>
-    <comment ref="AA5" authorId="2" shapeId="0">
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Wielkość produkcji energii elektrycznej, która jest „tracona” na rzecz produkcji ciepła PPELC (upuszczona para mogłaby wykonać pracę na łopatach turbiny skutkującą produkcją energii elektrycznej)</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -559,12 +544,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -583,12 +568,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -607,7 +592,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="311">
   <si>
     <t>Typ jednostki wytwórczej</t>
   </si>
@@ -1662,38 +1647,11 @@
   <si>
     <t>* Transmission &amp; Distribution Losses / Straty przesyłu i dystrybucji</t>
   </si>
-  <si>
-    <t>TRANSF_HV-HV</t>
-  </si>
-  <si>
-    <t>Electricity Transformation and Distribution High Voltage to High Voltage</t>
-  </si>
-  <si>
-    <t>ELEC_HV_HV</t>
-  </si>
-  <si>
-    <t>ELEC_MV_MV</t>
-  </si>
-  <si>
-    <t>ELEC_LV_LV</t>
-  </si>
-  <si>
-    <t>TRANSF_MV-MV</t>
-  </si>
-  <si>
-    <t>TRANSF_LV-LV</t>
-  </si>
-  <si>
-    <t>Electricity Transformation and Distribution Low Voltage to Low Voltage</t>
-  </si>
-  <si>
-    <t>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -1702,7 +1660,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.000___)"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1823,6 +1781,12 @@
       <b/>
       <sz val="9"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -3194,151 +3158,151 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="36" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="309">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="99" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="98" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="63" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="97" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="96" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="93" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="95" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="87" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="94" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="15" fillId="5" borderId="87" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="93" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="43" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="92" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="77" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="91" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="69" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="90" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="60" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="89" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="88" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="87" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="87" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="86" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="85" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="84" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="83" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="82" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="81" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="80" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="79" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="78" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="77" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="77" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="76" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="75" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="74" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="73" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="72" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="71" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="70" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="7" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="69" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="68" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="67" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="66" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="65" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="64" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="63" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="62" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="61" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="60" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="59" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="58" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="57" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="56" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="56" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="18" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="55" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="31" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="54" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="53" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="52" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="51" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="50" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="49" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="48" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="47" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="46" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="45" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="43" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="43" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="40" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="39" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="37" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="38" xfId="7" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="37" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="5" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="36" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="35" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="34" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="33" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="31" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="16" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="31" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="32" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="30" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="30" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="30" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="29" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="28" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="27" xfId="7" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="7" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="7" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3368,13 +3332,13 @@
     <xf numFmtId="166" fontId="15" fillId="14" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3383,13 +3347,16 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3432,12 +3399,12 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3455,7 +3422,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3473,9 +3440,9 @@
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3486,11 +3453,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="23" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3502,76 +3469,76 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="11" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="15" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="30" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3619,9 +3586,10 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="30" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="31" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3635,18 +3603,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="31" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="15" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -3682,58 +3650,61 @@
     <xf numFmtId="166" fontId="3" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3748,28 +3719,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="22" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Normal 10" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="4"/>
-    <cellStyle name="Normalny 43" xfId="7"/>
-    <cellStyle name="Normalny_S301-339-05" xfId="9"/>
-    <cellStyle name="Normalny_T206" xfId="10"/>
-    <cellStyle name="Per cent 2" xfId="6"/>
-    <cellStyle name="Procentowy" xfId="8" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{A7260F85-B5B3-45B4-BDA7-1B7692316576}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normalny 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normalny 43" xfId="7" xr:uid="{25509E4F-049A-4BCD-9F3D-F29DF0A232D3}"/>
+    <cellStyle name="Normalny_S301-339-05" xfId="9" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normalny_T206" xfId="10" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Per cent" xfId="8" builtinId="5"/>
+    <cellStyle name="Per cent 2" xfId="6" xr:uid="{16AEAEF0-BCF7-4E92-A003-70F2F7EBC894}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3804,7 +3775,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E58C486-551F-47A9-91CE-116C018103E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3899,7 +3870,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8035D9D1-15A9-F0F2-2F78-F3043F1FA942}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3970,7 +3941,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD111EA6-E3D2-46BE-A017-FE92ADC4D636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4041,7 +4012,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778850-239C-33C0-C185-82E99A63E8F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +4083,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B604B8E-35BB-B25F-5C86-07539621049C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4183,7 +4154,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DBEBE8-5760-7F25-660F-0A8576E966E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4254,7 +4225,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DC9CA45-6392-CAF6-FA7A-8C545C5AAD15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4325,7 +4296,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58B1A39B-3206-4F49-9C7A-A04FEDC09AD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4396,7 +4367,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8935ABFE-EDF6-B6CE-E90C-D57D96B04095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4467,7 +4438,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{253A5223-C089-12B0-5421-9EE7E09876D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4538,7 +4509,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{079C0B42-E73F-C625-111E-6B3DB0B6AD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4609,7 +4580,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDF508D-5EAD-6177-BF0B-215EDD247030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4637,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -5164,78 +5135,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Arkusz1"/>
   <dimension ref="B2:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="187" t="s">
+    <row r="2" spans="2:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="188" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="187"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="208" t="s">
+      <c r="C2" s="188"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="209" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="208"/>
-    </row>
-    <row r="5" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="208" t="s">
+      <c r="C4" s="209"/>
+    </row>
+    <row r="5" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="209" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="208"/>
-    </row>
-    <row r="6" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B6" s="294" t="s">
+      <c r="C5" s="209"/>
+    </row>
+    <row r="6" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B6" s="296" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="297" t="s">
+      <c r="C6" s="299" t="s">
         <v>223</v>
       </c>
-      <c r="D6" s="211" t="s">
+      <c r="D6" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="211" t="s">
+      <c r="E6" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="211" t="s">
+      <c r="F6" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="211" t="s">
+      <c r="G6" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="211" t="s">
+      <c r="H6" s="212" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="211" t="s">
+      <c r="I6" s="212" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="212" t="s">
+      <c r="J6" s="213" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B7" s="295"/>
-      <c r="C7" s="298"/>
+    <row r="7" spans="2:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="B7" s="297"/>
+      <c r="C7" s="300"/>
       <c r="D7" s="139" t="s">
         <v>224</v>
       </c>
@@ -5258,524 +5229,524 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="296"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="207" t="s">
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B8" s="298"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="207" t="s">
+      <c r="E8" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="207" t="s">
+      <c r="F8" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="207" t="s">
+      <c r="G8" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="207" t="s">
+      <c r="I8" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="213" t="s">
+      <c r="J8" s="214" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="214" t="s">
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B9" s="215" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="284" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="206">
+      <c r="D9" s="207">
         <v>17023.8</v>
       </c>
-      <c r="E9" s="206">
+      <c r="E9" s="207">
         <v>47860</v>
       </c>
-      <c r="F9" s="206"/>
-      <c r="G9" s="206">
+      <c r="F9" s="207"/>
+      <c r="G9" s="207">
         <v>20996.9</v>
       </c>
-      <c r="H9" s="206">
+      <c r="H9" s="207">
         <v>21688.2</v>
       </c>
-      <c r="I9" s="206"/>
-      <c r="J9" s="215"/>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="214" t="s">
+      <c r="I9" s="207"/>
+      <c r="J9" s="216"/>
+    </row>
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B10" s="215" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="284" t="s">
         <v>230</v>
       </c>
-      <c r="D10" s="206">
+      <c r="D10" s="207">
         <v>7391.2</v>
       </c>
-      <c r="E10" s="206">
+      <c r="E10" s="207">
         <v>34351.700000000004</v>
       </c>
-      <c r="F10" s="206"/>
-      <c r="G10" s="206">
+      <c r="F10" s="207"/>
+      <c r="G10" s="207">
         <v>45266.6</v>
       </c>
-      <c r="H10" s="206">
+      <c r="H10" s="207">
         <v>7935.8</v>
       </c>
-      <c r="I10" s="206"/>
-      <c r="J10" s="215"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="214" t="s">
+      <c r="I10" s="207"/>
+      <c r="J10" s="216"/>
+    </row>
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="282" t="s">
+      <c r="C11" s="284" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="206">
+      <c r="D11" s="207">
         <v>4094.6000000000022</v>
       </c>
-      <c r="E11" s="206">
+      <c r="E11" s="207">
         <v>16259.8</v>
       </c>
-      <c r="F11" s="206">
+      <c r="F11" s="207">
         <v>137017.29999999999</v>
       </c>
-      <c r="G11" s="206">
+      <c r="G11" s="207">
         <v>11204.8</v>
       </c>
-      <c r="H11" s="206">
+      <c r="H11" s="207">
         <v>21089.599999999999</v>
       </c>
-      <c r="I11" s="206"/>
-      <c r="J11" s="215"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B12" s="214" t="s">
+      <c r="I11" s="207"/>
+      <c r="J11" s="216"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B12" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="282" t="s">
+      <c r="C12" s="284" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="206">
+      <c r="D12" s="207">
         <v>1656.5</v>
       </c>
-      <c r="E12" s="206">
+      <c r="E12" s="207">
         <v>7464.6</v>
       </c>
-      <c r="F12" s="206">
+      <c r="F12" s="207">
         <v>17571.3</v>
       </c>
-      <c r="G12" s="206"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="206">
+      <c r="G12" s="207"/>
+      <c r="H12" s="207"/>
+      <c r="I12" s="207">
         <v>2109.5030000000002</v>
       </c>
-      <c r="J12" s="215">
+      <c r="J12" s="216">
         <v>32467</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="214" t="s">
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B13" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="282" t="s">
+      <c r="C13" s="284" t="s">
         <v>233</v>
       </c>
-      <c r="D13" s="206">
+      <c r="D13" s="207">
         <v>6227.6934486274804</v>
       </c>
-      <c r="E13" s="206">
+      <c r="E13" s="207">
         <v>15623.048922000018</v>
       </c>
-      <c r="F13" s="206"/>
-      <c r="G13" s="206"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="206"/>
-      <c r="J13" s="215"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="214" t="s">
+      <c r="F13" s="207"/>
+      <c r="G13" s="207"/>
+      <c r="H13" s="207"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="216"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B14" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="282" t="s">
+      <c r="C14" s="284" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="206">
+      <c r="D14" s="207">
         <v>3954.96</v>
       </c>
-      <c r="E14" s="206">
+      <c r="E14" s="207">
         <v>1957.92</v>
       </c>
-      <c r="F14" s="206"/>
-      <c r="G14" s="206"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="206"/>
-      <c r="J14" s="215"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B15" s="216" t="s">
+      <c r="F14" s="207"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="216"/>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="B15" s="217" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="283" t="s">
+      <c r="C15" s="285" t="s">
         <v>235</v>
       </c>
-      <c r="D15" s="228">
+      <c r="D15" s="229">
         <v>19.806000000000001</v>
       </c>
-      <c r="E15" s="206"/>
-      <c r="F15" s="206">
+      <c r="E15" s="207"/>
+      <c r="F15" s="207">
         <v>81695</v>
       </c>
-      <c r="G15" s="206">
+      <c r="G15" s="207">
         <v>4227</v>
       </c>
-      <c r="H15" s="206">
+      <c r="H15" s="207">
         <v>22840</v>
       </c>
-      <c r="I15" s="206"/>
-      <c r="J15" s="215"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="217" t="s">
+      <c r="I15" s="207"/>
+      <c r="J15" s="216"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="284" t="s">
+      <c r="C16" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="219">
+      <c r="D16" s="219"/>
+      <c r="E16" s="220">
         <f>SUM(E9:E15)</f>
         <v>123517.06892200003</v>
       </c>
-      <c r="F16" s="219">
+      <c r="F16" s="220">
         <f>SUM(F9:F15)</f>
         <v>236283.59999999998</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="218"/>
-      <c r="J16" s="220"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="210" t="s">
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="221"/>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="210"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="210" t="s">
+      <c r="C17" s="211"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="210"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="289" t="s">
+      <c r="C18" s="211"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="291" t="s">
         <v>268</v>
       </c>
-      <c r="C19" s="210"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="210" t="s">
+      <c r="C19" s="211"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="211" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="210"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B23" s="187" t="s">
+      <c r="C20" s="211"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="209"/>
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="209"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+    </row>
+    <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="188" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="187"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="208" t="s">
+      <c r="C23" s="188"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="209" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="208"/>
-      <c r="D25" s="208"/>
-      <c r="E25" s="208"/>
-      <c r="F25" s="208"/>
-    </row>
-    <row r="26" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="208" t="s">
+      <c r="C25" s="209"/>
+      <c r="D25" s="209"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+    </row>
+    <row r="26" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="209" t="s">
         <v>246</v>
       </c>
-      <c r="C26" s="208"/>
-      <c r="D26" s="208"/>
-      <c r="E26" s="208"/>
-      <c r="F26" s="208"/>
-    </row>
-    <row r="27" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="292" t="s">
+      <c r="C26" s="209"/>
+      <c r="D26" s="209"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+    </row>
+    <row r="27" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="290" t="s">
+      <c r="C27" s="292" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="211" t="s">
+      <c r="D27" s="212" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="221" t="s">
+      <c r="E27" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="208"/>
-    </row>
-    <row r="28" spans="2:7" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="293"/>
-      <c r="C28" s="291"/>
+      <c r="F27" s="209"/>
+    </row>
+    <row r="28" spans="2:7" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="295"/>
+      <c r="C28" s="293"/>
       <c r="D28" s="139" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="288" t="s">
+      <c r="E28" s="290" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="208"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="222" t="s">
+      <c r="F28" s="209"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="285" t="s">
+      <c r="C29" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="D29" s="207" t="s">
+      <c r="D29" s="208" t="s">
         <v>278</v>
       </c>
-      <c r="E29" s="223">
+      <c r="E29" s="224">
         <v>0.97706171756374371</v>
       </c>
-      <c r="F29" s="208"/>
+      <c r="F29" s="209"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="222" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="285" t="s">
+      <c r="C30" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="207" t="s">
+      <c r="D30" s="208" t="s">
         <v>309</v>
       </c>
-      <c r="E30" s="223">
+      <c r="E30" s="224">
         <v>0.9764416403645515</v>
       </c>
-      <c r="F30" s="208"/>
+      <c r="F30" s="209"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="222" t="s">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="285" t="s">
+      <c r="C31" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="D31" s="207" t="s">
+      <c r="D31" s="208" t="s">
         <v>243</v>
       </c>
-      <c r="E31" s="223">
+      <c r="E31" s="224">
         <v>0.9515253427786764</v>
       </c>
-      <c r="F31" s="208"/>
-      <c r="G31" s="142"/>
-    </row>
-    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="224" t="s">
+      <c r="F31" s="209"/>
+      <c r="G31" s="143"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="286" t="s">
+      <c r="C32" s="288" t="s">
         <v>242</v>
       </c>
-      <c r="D32" s="225" t="s">
+      <c r="D32" s="226" t="s">
         <v>244</v>
       </c>
-      <c r="E32" s="226">
+      <c r="E32" s="227">
         <v>0.85899999999999999</v>
       </c>
-      <c r="F32" s="208"/>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="210" t="s">
+      <c r="F32" s="209"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="208"/>
-      <c r="O33" s="142"/>
-      <c r="P33" s="142"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B34" s="289" t="s">
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="209"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="208"/>
-      <c r="D34" s="208"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="208"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B35" s="289" t="s">
+      <c r="C34" s="209"/>
+      <c r="D34" s="209"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="209"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="291" t="s">
         <v>268</v>
       </c>
-      <c r="C35" s="208"/>
-      <c r="D35" s="208"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="208"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B36" s="208"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="208"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B37" s="208"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="209"/>
-      <c r="F37" s="208"/>
-    </row>
-    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="187" t="s">
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="210"/>
+      <c r="F35" s="209"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="209"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="209"/>
+      <c r="C37" s="209"/>
+      <c r="D37" s="209"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="209"/>
+    </row>
+    <row r="38" spans="2:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="188" t="s">
         <v>267</v>
       </c>
-      <c r="C38" s="187"/>
-      <c r="D38" s="208"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="208"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="208"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="208"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B40" s="208" t="s">
+      <c r="C38" s="188"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="209"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="209"/>
+      <c r="C39" s="209"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="210"/>
+      <c r="F39" s="209"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="C40" s="208"/>
-      <c r="D40" s="208"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="208"/>
-    </row>
-    <row r="41" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="208" t="s">
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="210"/>
+      <c r="F40" s="209"/>
+    </row>
+    <row r="41" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="209" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="209"/>
-      <c r="F41" s="208"/>
-    </row>
-    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="292" t="s">
+      <c r="C41" s="209"/>
+      <c r="D41" s="209"/>
+      <c r="E41" s="210"/>
+      <c r="F41" s="209"/>
+    </row>
+    <row r="42" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="294" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="290" t="s">
+      <c r="C42" s="292" t="s">
         <v>240</v>
       </c>
-      <c r="D42" s="227" t="s">
+      <c r="D42" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="212" t="s">
+      <c r="E42" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="208"/>
-    </row>
-    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="293"/>
-      <c r="C43" s="291"/>
+      <c r="F42" s="209"/>
+    </row>
+    <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="295"/>
+      <c r="C43" s="293"/>
       <c r="D43" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="287" t="s">
+      <c r="E43" s="289" t="s">
         <v>250</v>
       </c>
-      <c r="F43" s="208"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B44" s="222" t="s">
+      <c r="F43" s="209"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="285" t="s">
+      <c r="C44" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="D44" s="207" t="s">
+      <c r="D44" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="223">
+      <c r="E44" s="224">
         <f>SUM(E9:E14)*E29/1000</f>
         <v>120.68379950936867</v>
       </c>
-      <c r="F44" s="208"/>
-    </row>
-    <row r="45" spans="2:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="224" t="s">
+      <c r="F44" s="209"/>
+    </row>
+    <row r="45" spans="2:16" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="225" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="286" t="s">
+      <c r="C45" s="288" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="225" t="s">
+      <c r="D45" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="226">
+      <c r="E45" s="227">
         <f>SUM(F9:F15)*E32/1000</f>
         <v>202.96761239999998</v>
       </c>
-      <c r="F45" s="208"/>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B46" s="210" t="s">
+      <c r="F45" s="209"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="211" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="208"/>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B47" s="289" t="s">
+      <c r="C46" s="209"/>
+      <c r="D46" s="209"/>
+      <c r="E46" s="209"/>
+      <c r="F46" s="209"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="291" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="208"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B48" s="289" t="s">
+      <c r="C47" s="209"/>
+      <c r="D47" s="209"/>
+      <c r="E47" s="209"/>
+      <c r="F47" s="209"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" s="291" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="208"/>
-      <c r="C50" s="208"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="209"/>
+      <c r="C50" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5792,69 +5763,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F15965AD-C265-4BE6-9DA6-D03BC206A38C}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AL35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="115" customWidth="1"/>
-    <col min="2" max="4" width="6.42578125" style="115" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="115" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="115" customWidth="1"/>
-    <col min="7" max="8" width="7.28515625" style="115" customWidth="1"/>
-    <col min="9" max="10" width="3.42578125" style="115" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="115" customWidth="1"/>
+    <col min="2" max="4" width="6.44140625" style="115" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="115" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="115" customWidth="1"/>
+    <col min="7" max="8" width="7.21875" style="115" customWidth="1"/>
+    <col min="9" max="10" width="3.44140625" style="115" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" style="115" customWidth="1"/>
     <col min="12" max="12" width="12" style="115" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="115" customWidth="1"/>
-    <col min="14" max="16" width="7.28515625" style="115" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" style="115" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="115" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" style="115" customWidth="1"/>
-    <col min="20" max="21" width="7.28515625" style="115" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="115" customWidth="1"/>
+    <col min="14" max="16" width="7.21875" style="115" customWidth="1"/>
+    <col min="17" max="17" width="8.21875" style="115" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" style="115" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" style="115" customWidth="1"/>
+    <col min="20" max="21" width="7.21875" style="115" customWidth="1"/>
     <col min="22" max="22" width="5" style="115" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" style="115" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="115" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="115" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" style="115" customWidth="1"/>
-    <col min="27" max="27" width="6.42578125" style="115" customWidth="1"/>
-    <col min="28" max="28" width="5.42578125" style="115" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" style="115" customWidth="1"/>
+    <col min="24" max="24" width="12.77734375" style="115" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" style="115" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" style="115" customWidth="1"/>
+    <col min="27" max="27" width="6.44140625" style="115" customWidth="1"/>
+    <col min="28" max="28" width="5.44140625" style="115" customWidth="1"/>
     <col min="29" max="29" width="7" style="115" customWidth="1"/>
     <col min="30" max="30" width="12" style="115" customWidth="1"/>
     <col min="31" max="31" width="7" style="115" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" style="115" customWidth="1"/>
+    <col min="32" max="32" width="5.77734375" style="115" customWidth="1"/>
     <col min="33" max="33" width="13" style="115" customWidth="1"/>
-    <col min="34" max="34" width="5.7109375" style="115" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" style="115" customWidth="1"/>
-    <col min="36" max="36" width="12.7109375" style="115" customWidth="1"/>
-    <col min="37" max="38" width="4.28515625" style="115" customWidth="1"/>
-    <col min="39" max="16384" width="9.28515625" style="115"/>
+    <col min="34" max="34" width="5.77734375" style="115" customWidth="1"/>
+    <col min="35" max="35" width="4.21875" style="115" customWidth="1"/>
+    <col min="36" max="36" width="12.77734375" style="115" customWidth="1"/>
+    <col min="37" max="38" width="4.21875" style="115" customWidth="1"/>
+    <col min="39" max="16384" width="9.21875" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:35" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="116" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="2:35" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="114" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B3" s="115" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="113"/>
       <c r="C6" s="112"/>
       <c r="D6" s="111"/>
@@ -5903,7 +5874,7 @@
       <c r="AA6" s="112"/>
       <c r="AB6" s="111"/>
     </row>
-    <row r="7" spans="2:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="98"/>
       <c r="C7" s="97" t="s">
         <v>91</v>
@@ -5927,7 +5898,7 @@
       </c>
       <c r="AB7" s="96"/>
     </row>
-    <row r="8" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="87"/>
       <c r="C8" s="86"/>
       <c r="D8" s="85"/>
@@ -5950,7 +5921,7 @@
       <c r="AA8" s="86"/>
       <c r="AB8" s="85"/>
     </row>
-    <row r="9" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="80"/>
       <c r="H9" s="79"/>
       <c r="L9" s="101"/>
@@ -5968,13 +5939,13 @@
         <v>27121.55</v>
       </c>
     </row>
-    <row r="10" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="80"/>
       <c r="H10" s="79"/>
       <c r="K10" s="76"/>
       <c r="V10" s="90"/>
     </row>
-    <row r="11" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="80"/>
       <c r="H11" s="79"/>
       <c r="K11" s="75"/>
@@ -5991,7 +5962,7 @@
       <c r="AH11" s="73"/>
       <c r="AI11" s="72"/>
     </row>
-    <row r="12" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="113"/>
       <c r="C12" s="112"/>
       <c r="D12" s="111"/>
@@ -6051,7 +6022,7 @@
       <c r="AH12" s="111"/>
       <c r="AI12" s="60"/>
     </row>
-    <row r="13" spans="2:35" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:35" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="98"/>
       <c r="C13" s="97" t="s">
         <v>98</v>
@@ -6080,7 +6051,7 @@
       <c r="AH13" s="96"/>
       <c r="AI13" s="60"/>
     </row>
-    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="87"/>
       <c r="C14" s="86"/>
       <c r="D14" s="85"/>
@@ -6130,7 +6101,7 @@
       <c r="AH14" s="96"/>
       <c r="AI14" s="60"/>
     </row>
-    <row r="15" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="80"/>
       <c r="H15" s="47"/>
       <c r="K15" s="46"/>
@@ -6157,7 +6128,7 @@
       <c r="AH15" s="96"/>
       <c r="AI15" s="60"/>
     </row>
-    <row r="16" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G16" s="80"/>
       <c r="H16" s="79"/>
       <c r="I16" s="44"/>
@@ -6183,7 +6154,7 @@
       <c r="AH16" s="85"/>
       <c r="AI16" s="60"/>
     </row>
-    <row r="17" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="80"/>
       <c r="H17" s="79"/>
       <c r="I17" s="44"/>
@@ -6203,7 +6174,7 @@
       <c r="AH17" s="35"/>
       <c r="AI17" s="34"/>
     </row>
-    <row r="18" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="113"/>
       <c r="C18" s="112"/>
       <c r="D18" s="111"/>
@@ -6244,7 +6215,7 @@
       <c r="U18" s="53"/>
       <c r="V18" s="90"/>
     </row>
-    <row r="19" spans="2:38" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="98"/>
       <c r="C19" s="97" t="s">
         <v>299</v>
@@ -6261,7 +6232,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="90"/>
     </row>
-    <row r="20" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="87"/>
       <c r="C20" s="86"/>
       <c r="D20" s="85"/>
@@ -6303,7 +6274,7 @@
       <c r="AK20" s="73"/>
       <c r="AL20" s="72"/>
     </row>
-    <row r="21" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="80"/>
       <c r="H21" s="79"/>
       <c r="J21" s="25"/>
@@ -6339,7 +6310,7 @@
       <c r="AK21" s="111"/>
       <c r="AL21" s="60"/>
     </row>
-    <row r="22" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G22" s="80"/>
       <c r="H22" s="79"/>
       <c r="J22" s="25"/>
@@ -6359,17 +6330,17 @@
       <c r="AK22" s="96"/>
       <c r="AL22" s="60"/>
     </row>
-    <row r="23" spans="2:38" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="80"/>
       <c r="H23" s="79"/>
       <c r="J23" s="25"/>
       <c r="M23" s="115" t="s">
         <v>302</v>
       </c>
-      <c r="P23" s="307">
+      <c r="P23" s="310">
         <v>154125.60999999996</v>
       </c>
-      <c r="Q23" s="307"/>
+      <c r="Q23" s="310"/>
       <c r="R23" s="115" t="s">
         <v>7</v>
       </c>
@@ -6399,7 +6370,7 @@
       <c r="AK23" s="96"/>
       <c r="AL23" s="60"/>
     </row>
-    <row r="24" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="113"/>
       <c r="C24" s="112"/>
       <c r="D24" s="111"/>
@@ -6417,10 +6388,10 @@
       <c r="M24" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="P24" s="307">
+      <c r="P24" s="310">
         <v>142240.554</v>
       </c>
-      <c r="Q24" s="307"/>
+      <c r="Q24" s="310"/>
       <c r="R24" s="115" t="s">
         <v>7</v>
       </c>
@@ -6439,7 +6410,7 @@
       <c r="AK24" s="96"/>
       <c r="AL24" s="60"/>
     </row>
-    <row r="25" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="98"/>
       <c r="D25" s="96"/>
       <c r="F25" s="49"/>
@@ -6449,10 +6420,10 @@
       <c r="M25" s="115" t="s">
         <v>305</v>
       </c>
-      <c r="P25" s="307">
+      <c r="P25" s="310">
         <v>1075.1959999999999</v>
       </c>
-      <c r="Q25" s="307"/>
+      <c r="Q25" s="310"/>
       <c r="R25" s="115" t="s">
         <v>7</v>
       </c>
@@ -6478,7 +6449,7 @@
       <c r="AK25" s="85"/>
       <c r="AL25" s="60"/>
     </row>
-    <row r="26" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="98"/>
       <c r="C26" s="49" t="s">
         <v>306</v>
@@ -6498,10 +6469,10 @@
       <c r="M26" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="P26" s="307">
+      <c r="P26" s="310">
         <v>1620.396</v>
       </c>
-      <c r="Q26" s="307"/>
+      <c r="Q26" s="310"/>
       <c r="R26" s="115" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6481,7 @@
       <c r="AE26" s="19"/>
       <c r="AL26" s="60"/>
     </row>
-    <row r="27" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="98"/>
       <c r="D27" s="96"/>
       <c r="G27" s="80"/>
@@ -6519,15 +6490,15 @@
       <c r="M27" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="P27" s="308">
+      <c r="P27" s="311">
         <v>5.9623212521267233E-2</v>
       </c>
-      <c r="Q27" s="308"/>
+      <c r="Q27" s="311"/>
       <c r="Y27" s="58"/>
       <c r="AE27" s="19"/>
       <c r="AL27" s="60"/>
     </row>
-    <row r="28" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="87"/>
       <c r="C28" s="86"/>
       <c r="D28" s="85"/>
@@ -6555,7 +6526,7 @@
       </c>
       <c r="AL28" s="60"/>
     </row>
-    <row r="29" spans="2:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G29" s="80"/>
       <c r="J29" s="7"/>
       <c r="Y29" s="58"/>
@@ -6566,7 +6537,7 @@
       <c r="AB29" s="96"/>
       <c r="AL29" s="60"/>
     </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
       <c r="G30" s="80"/>
       <c r="J30" s="25"/>
       <c r="Y30" s="58"/>
@@ -6577,7 +6548,7 @@
       <c r="AB30" s="96"/>
       <c r="AL30" s="60"/>
     </row>
-    <row r="31" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G31" s="80"/>
       <c r="J31" s="25"/>
       <c r="Y31" s="6"/>
@@ -6593,7 +6564,7 @@
       </c>
       <c r="AL31" s="60"/>
     </row>
-    <row r="32" spans="2:38" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:38" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="113"/>
       <c r="C32" s="112"/>
       <c r="D32" s="111"/>
@@ -6622,7 +6593,7 @@
       <c r="AK32" s="35"/>
       <c r="AL32" s="34"/>
     </row>
-    <row r="33" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B33" s="98"/>
       <c r="C33" s="49" t="s">
         <v>119</v>
@@ -6631,7 +6602,7 @@
       <c r="J33" s="25"/>
       <c r="AE33" s="25"/>
     </row>
-    <row r="34" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:31" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="87"/>
       <c r="C34" s="86"/>
       <c r="D34" s="85"/>
@@ -6660,7 +6631,7 @@
       <c r="AD34" s="11"/>
       <c r="AE34" s="10"/>
     </row>
-    <row r="35" spans="2:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:31" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="P23:Q23"/>
@@ -6675,90 +6646,90 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:K31"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="266" t="s">
+    <row r="2" spans="2:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="267"/>
-      <c r="D2" s="267"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-    </row>
-    <row r="3" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="162"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-    </row>
-    <row r="4" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+    </row>
+    <row r="3" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="163"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+    </row>
+    <row r="4" spans="2:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-    </row>
-    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="274" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="272" t="s">
+      <c r="H5" s="274" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="274" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>40</v>
       </c>
@@ -6784,7 +6755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>193</v>
       </c>
@@ -6797,310 +6768,241 @@
       <c r="E7" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="273" t="s">
+      <c r="F7" s="275" t="s">
         <v>257</v>
       </c>
       <c r="G7" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="273" t="s">
+      <c r="H7" s="275" t="s">
         <v>258</v>
       </c>
       <c r="I7" s="137" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="236" t="s">
+    <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="237" t="s">
+      <c r="C8" s="238" t="s">
         <v>251</v>
       </c>
-      <c r="D8" s="237" t="s">
+      <c r="D8" s="238" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="236" t="s">
+      <c r="E8" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="236"/>
-      <c r="G8" s="236" t="s">
+      <c r="F8" s="237"/>
+      <c r="G8" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="236" t="s">
+      <c r="H8" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="236" t="s">
+      <c r="I8" s="237" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="238" t="s">
+    <row r="9" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="239" t="s">
+      <c r="C9" s="240" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="239" t="s">
+      <c r="D9" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="238" t="s">
+      <c r="E9" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238" t="s">
+      <c r="F9" s="239"/>
+      <c r="G9" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="238" t="s">
+      <c r="H9" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="238" t="s">
+      <c r="I9" s="239" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="236" t="s">
+    <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="237" t="s">
+      <c r="C10" s="238" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="237" t="s">
+      <c r="D10" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236" t="s">
+      <c r="F10" s="237"/>
+      <c r="G10" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="236" t="s">
+      <c r="H10" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="236" t="s">
+      <c r="I10" s="237" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="236" t="s">
+    <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="142" t="s">
-        <v>313</v>
-      </c>
-      <c r="D11" s="237" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="236" t="s">
+      <c r="C11" s="240" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="240" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="239" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="236" t="s">
+      <c r="F11" s="239"/>
+      <c r="G11" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="236" t="s">
+      <c r="H11" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="236" t="s">
+      <c r="I11" s="239"/>
+    </row>
+    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="237" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="238" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="238" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="237" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="237"/>
+      <c r="G12" s="237" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="237" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="237"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="239" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="240" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="240" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="239"/>
+      <c r="G13" s="239"/>
+      <c r="H13" s="239"/>
+      <c r="I13" s="240" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="236" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="142" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="239" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="236" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="236" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="236" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="236" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="236" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="237" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="236" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="236" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="236" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="236" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="238" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="239" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="239" t="s">
-        <v>56</v>
+    <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="237" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="238" t="s">
+        <v>265</v>
+      </c>
+      <c r="D14" s="238" t="s">
+        <v>255</v>
       </c>
       <c r="E14" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="238" t="s">
-        <v>51</v>
-      </c>
+      <c r="F14" s="237"/>
+      <c r="G14" s="237"/>
+      <c r="H14" s="237"/>
       <c r="I14" s="238"/>
-      <c r="K14" s="163"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="236" t="s">
+      <c r="K14" s="164"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="241" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="241" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="264" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="241" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="241"/>
+      <c r="G15" s="241"/>
+      <c r="H15" s="241"/>
+      <c r="I15" s="241"/>
+    </row>
+    <row r="19" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="302" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="302"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="267" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="237" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="237" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="236" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="236"/>
-      <c r="G15" s="236" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="236" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="236"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="238" t="s">
+      <c r="C20" s="267" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="124" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="239" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="239" t="s">
-        <v>256</v>
-      </c>
-      <c r="E16" s="239" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="236" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="237" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="237" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="237" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="236"/>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="237"/>
-    </row>
-    <row r="18" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="240" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="262" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="240" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
-    </row>
-    <row r="26" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="300" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="300"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="265" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="265" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="122" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="122" t="s">
+      <c r="C22" s="122" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="124" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="124" t="s">
+      <c r="C23" s="124" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="118" t="s">
+    <row r="24" spans="2:3" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C24" s="118" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7111,88 +7013,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Arkusz2"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.42578125" customWidth="1"/>
-    <col min="6" max="10" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
+    <col min="6" max="10" width="21.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="269"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="152"/>
-      <c r="B2" s="270" t="s">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="271"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153"/>
+      <c r="B2" s="272" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="162" t="s">
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="162"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="163"/>
-      <c r="J4" s="163"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="H5" s="272" t="s">
+      <c r="H5" s="274" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="274" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="274" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>83</v>
       </c>
@@ -7221,7 +7123,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>199</v>
       </c>
@@ -7243,412 +7145,345 @@
       <c r="H7" s="137" t="s">
         <v>197</v>
       </c>
-      <c r="I7" s="274" t="s">
+      <c r="I7" s="276" t="s">
         <v>263</v>
       </c>
-      <c r="J7" s="274" t="s">
+      <c r="J7" s="276" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="241" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="171" t="s">
+      <c r="D8" s="172" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="171" t="s">
+      <c r="E8" s="172" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="170" t="s">
+      <c r="G8" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="170" t="s">
+      <c r="H8" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="242" t="s">
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="198" t="s">
+      <c r="C9" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="200" t="s">
         <v>260</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="198" t="s">
+      <c r="F9" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="198" t="s">
+      <c r="G9" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="198" t="s">
+      <c r="H9" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="241" t="s">
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="242" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="171" t="s">
+      <c r="D10" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="170" t="s">
+      <c r="H10" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="242" t="s">
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="243" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="198" t="s">
+      <c r="C11" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="200" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="199" t="s">
+      <c r="E11" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="198" t="s">
+      <c r="F11" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="198" t="s">
+      <c r="G11" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="H11" s="198" t="s">
+      <c r="H11" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="198"/>
-      <c r="J11" s="198"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="241" t="s">
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="170" t="s">
+      <c r="C12" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="171" t="s">
+      <c r="D12" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="170" t="s">
+      <c r="G12" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="170" t="s">
+      <c r="H12" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="242" t="s">
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="199" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="199" t="s">
+      <c r="D13" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="199" t="s">
+      <c r="E13" s="200" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="198" t="s">
+      <c r="F13" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="198" t="s">
+      <c r="G13" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="198" t="s">
+      <c r="H13" s="199" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="198"/>
-      <c r="J13" s="198"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="241" t="s">
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="242" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="170" t="s">
+      <c r="C14" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="171" t="s">
+      <c r="D14" s="172" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="170" t="s">
+      <c r="F14" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="170" t="s">
+      <c r="G14" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="170" t="s">
+      <c r="H14" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="275" t="s">
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="277" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="276" t="s">
+      <c r="C15" s="278" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="277" t="s">
-        <v>311</v>
-      </c>
-      <c r="E15" s="277" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" s="276" t="s">
+      <c r="D15" s="279" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="279" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="278" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="276" t="s">
+      <c r="G15" s="278" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="276" t="s">
+      <c r="H15" s="278" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="276"/>
-      <c r="J15" s="276"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="275" t="s">
+      <c r="I15" s="278"/>
+      <c r="J15" s="278"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="276" t="s">
+      <c r="C16" s="280" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="277" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" s="277" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="276" t="s">
+      <c r="D16" s="281" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="281" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="280" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="276" t="s">
+      <c r="G16" s="280" t="s">
         <v>222</v>
       </c>
-      <c r="H16" s="276" t="s">
+      <c r="H16" s="280" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="276"/>
-      <c r="J16" s="276"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="275" t="s">
+      <c r="I16" s="280"/>
+      <c r="J16" s="280"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="142"/>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="304" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="304"/>
+      <c r="D20" s="304"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="122"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="124"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="122" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="122"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="276" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="277" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" s="277" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="276" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="276" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="276" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="276"/>
-      <c r="J17" s="276"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="275" t="s">
-        <v>106</v>
-      </c>
-      <c r="C18" s="276" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="277" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="277" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="276" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="276" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" s="276" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="276"/>
-      <c r="J18" s="276"/>
-    </row>
-    <row r="19" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="278" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="278" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="279" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="279" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="278" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="278" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="278" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="278"/>
-      <c r="J19" s="278"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="301" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="122" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="122" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="122"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="124" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="124"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="122" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="122"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="124" t="s">
+      <c r="C24" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="124"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="122" t="s">
+      <c r="D24" s="124"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C25" s="122" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D25" s="122" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="124" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="124" t="s">
+      <c r="C26" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="124" t="s">
+      <c r="D26" s="124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="122" t="s">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="122" t="s">
+      <c r="C27" s="122" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="122" t="s">
+      <c r="D27" s="122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="s">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="124" t="s">
+      <c r="C28" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="124" t="s">
+      <c r="D28" s="124" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="118" t="s">
+    <row r="29" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C29" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="118"/>
+      <c r="D29" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B21:D21"/>
+  <mergeCells count="2">
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7659,93 +7494,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Arkusz3"/>
   <dimension ref="B2:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="14" width="7.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" customWidth="1"/>
     <col min="17" max="17" width="15" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.88671875" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
+    <row r="2" spans="2:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="270" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="E2" s="145"/>
-      <c r="H2" s="148"/>
+      <c r="C2" s="188"/>
+      <c r="E2" s="146"/>
+      <c r="H2" s="149"/>
       <c r="I2" s="141"/>
       <c r="J2" s="141"/>
       <c r="K2" s="141"/>
       <c r="L2" s="141"/>
       <c r="M2" s="141"/>
       <c r="N2" s="141"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="147"/>
-    </row>
-    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="148"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="151"/>
+      <c r="C3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="148"/>
+    </row>
+    <row r="4" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-      <c r="S4" s="154"/>
-    </row>
-    <row r="5" spans="2:30" s="143" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+    </row>
+    <row r="5" spans="2:30" s="144" customFormat="1" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="136" t="s">
         <v>76</v>
       </c>
@@ -7804,7 +7639,7 @@
       <c r="W5"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:30" ht="53.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -7823,15 +7658,15 @@
       <c r="G6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="302" t="s">
+      <c r="H6" s="305" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="302"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
       <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
@@ -7847,10 +7682,10 @@
       <c r="S6" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="Y6" s="180"/>
-      <c r="Z6" s="142"/>
-    </row>
-    <row r="7" spans="2:30" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y6" s="181"/>
+      <c r="Z6" s="143"/>
+    </row>
+    <row r="7" spans="2:30" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -7869,15 +7704,15 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="303" t="s">
+      <c r="H7" s="306" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
       <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
@@ -7893,180 +7728,180 @@
       <c r="S7" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="Y7" s="180"/>
-      <c r="Z7" s="142"/>
-    </row>
-    <row r="8" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="166" t="str">
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="143"/>
+    </row>
+    <row r="8" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="167" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_HC</v>
       </c>
-      <c r="C8" s="166" t="str">
+      <c r="C8" s="167" t="str">
         <f>SEC_Processes!E10</f>
         <v>Existing Hard Coal Power Plants</v>
       </c>
-      <c r="D8" s="249" t="s">
+      <c r="D8" s="250" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="249" t="str">
+      <c r="E8" s="250" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="243">
+      <c r="F8" s="244">
         <f>(BALANCE!E9*3.6/10^3)/(BALANCE!G9*BALANCE!H9/10^6)</f>
         <v>0.37835241091502259</v>
       </c>
-      <c r="G8" s="244">
+      <c r="G8" s="245">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="243">
+      <c r="H8" s="244">
         <f>BALANCE!D9/1000</f>
         <v>17.023799999999998</v>
       </c>
-      <c r="I8" s="243">
+      <c r="I8" s="244">
         <v>13.973599999999999</v>
       </c>
-      <c r="J8" s="243">
+      <c r="J8" s="244">
         <v>9.5486000000000004</v>
       </c>
-      <c r="K8" s="243">
+      <c r="K8" s="244">
         <v>7.5076000000000001</v>
       </c>
-      <c r="L8" s="243">
+      <c r="L8" s="244">
         <v>5.294999999999999</v>
       </c>
-      <c r="M8" s="243">
+      <c r="M8" s="244">
         <v>3.5409999999999995</v>
       </c>
-      <c r="N8" s="243">
+      <c r="N8" s="244">
         <v>0</v>
       </c>
-      <c r="O8" s="245">
+      <c r="O8" s="246">
         <v>1</v>
       </c>
-      <c r="P8" s="245">
+      <c r="P8" s="246">
         <f>ROUNDUP((BALANCE!E9/BALANCE!D9*1000/8760),2)</f>
         <v>0.33</v>
       </c>
-      <c r="Q8" s="244">
+      <c r="Q8" s="245">
         <f>P8*1.25</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="R8" s="245">
+      <c r="R8" s="246">
         <f>44*4.5</f>
         <v>198</v>
       </c>
-      <c r="S8" s="244">
+      <c r="S8" s="245">
         <f>3.4/3.6*4.5</f>
         <v>4.25</v>
       </c>
     </row>
-    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="195" t="str">
+    <row r="9" spans="2:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="196" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_BC</v>
       </c>
-      <c r="C9" s="195" t="str">
+      <c r="C9" s="196" t="str">
         <f>SEC_Processes!E11</f>
         <v>Existing Brown Coal Power Plants</v>
       </c>
-      <c r="D9" s="263" t="s">
+      <c r="D9" s="265" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="250" t="str">
+      <c r="E9" s="251" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="246">
+      <c r="F9" s="247">
         <f>(BALANCE!E10*3.6/10^3)/(BALANCE!G10*BALANCE!H10/10^6)</f>
         <v>0.34425649711369494</v>
       </c>
-      <c r="G9" s="247">
+      <c r="G9" s="248">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="246">
+      <c r="H9" s="247">
         <f>BALANCE!D10/1000</f>
         <v>7.3911999999999995</v>
       </c>
-      <c r="I9" s="246">
+      <c r="I9" s="247">
         <v>7.5307599999999999</v>
       </c>
-      <c r="J9" s="246">
+      <c r="J9" s="247">
         <v>7.1887599999999994</v>
       </c>
-      <c r="K9" s="246">
+      <c r="K9" s="247">
         <v>3.145</v>
       </c>
-      <c r="L9" s="246">
+      <c r="L9" s="247">
         <v>1.4890000000000001</v>
       </c>
-      <c r="M9" s="246">
+      <c r="M9" s="247">
         <v>0.89</v>
       </c>
-      <c r="N9" s="246">
+      <c r="N9" s="247">
         <v>0</v>
       </c>
-      <c r="O9" s="248">
+      <c r="O9" s="249">
         <v>1</v>
       </c>
-      <c r="P9" s="248">
+      <c r="P9" s="249">
         <f>ROUNDUP((BALANCE!E10/BALANCE!D10*1000/8760),2)</f>
         <v>0.54</v>
       </c>
-      <c r="Q9" s="247">
+      <c r="Q9" s="248">
         <f>P9*1.25</f>
         <v>0.67500000000000004</v>
       </c>
-      <c r="R9" s="248">
+      <c r="R9" s="249">
         <f>49*4.5</f>
         <v>220.5</v>
       </c>
-      <c r="S9" s="248">
+      <c r="S9" s="249">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="268" t="s">
+    <row r="13" spans="2:30" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="270" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="179"/>
-      <c r="Y13" s="179"/>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="179"/>
-      <c r="AC13" s="179"/>
-      <c r="AD13" s="179"/>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="V14" s="180"/>
-      <c r="Y14" s="180"/>
-      <c r="Z14" s="180"/>
-      <c r="AA14" s="180"/>
-      <c r="AB14" s="180"/>
-      <c r="AC14" s="180"/>
-      <c r="AD14" s="180"/>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="230"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="181"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="183"/>
-    </row>
-    <row r="16" spans="2:30" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="188"/>
+      <c r="U13" s="179"/>
+      <c r="V13" s="180"/>
+      <c r="Y13" s="180"/>
+      <c r="Z13" s="180"/>
+      <c r="AA13" s="180"/>
+      <c r="AB13" s="180"/>
+      <c r="AC13" s="180"/>
+      <c r="AD13" s="180"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="V14" s="181"/>
+      <c r="Y14" s="181"/>
+      <c r="Z14" s="181"/>
+      <c r="AA14" s="181"/>
+      <c r="AB14" s="181"/>
+      <c r="AC14" s="181"/>
+      <c r="AD14" s="181"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="231"/>
+      <c r="Y15" s="182"/>
+      <c r="Z15" s="182"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="184"/>
+    </row>
+    <row r="16" spans="2:30" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="136" t="s">
         <v>76</v>
       </c>
@@ -8109,15 +7944,15 @@
       <c r="O16" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="V16" s="181"/>
-      <c r="Y16" s="181"/>
-      <c r="Z16" s="181"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="183"/>
-    </row>
-    <row r="17" spans="2:30" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="182"/>
+      <c r="Y16" s="182"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="184"/>
+    </row>
+    <row r="17" spans="2:30" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="133" t="s">
         <v>140</v>
       </c>
@@ -8160,11 +7995,11 @@
       <c r="O17" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="Y17" s="181"/>
-      <c r="Z17" s="181"/>
-      <c r="AD17" s="184"/>
-    </row>
-    <row r="18" spans="2:30" ht="79.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="182"/>
+      <c r="AD17" s="185"/>
+    </row>
+    <row r="18" spans="2:30" ht="79.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="131" t="s">
         <v>213</v>
       </c>
@@ -8207,11 +8042,11 @@
       <c r="O18" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="181"/>
-      <c r="AD18" s="184"/>
-    </row>
-    <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AD18" s="185"/>
+    </row>
+    <row r="19" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="127" t="s">
         <v>261</v>
       </c>
@@ -8247,7 +8082,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="124"/>
       <c r="C20" s="124"/>
       <c r="D20" s="124"/>
@@ -8271,7 +8106,7 @@
       <c r="N20" s="124"/>
       <c r="O20" s="124"/>
     </row>
-    <row r="21" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="122"/>
       <c r="C21" s="122"/>
       <c r="D21" s="122"/>
@@ -8295,7 +8130,7 @@
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
     </row>
-    <row r="22" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="124"/>
       <c r="C22" s="124"/>
       <c r="D22" s="124"/>
@@ -8315,7 +8150,7 @@
       <c r="N22" s="124"/>
       <c r="O22" s="124"/>
     </row>
-    <row r="23" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="122"/>
       <c r="C23" s="122"/>
       <c r="D23" s="122"/>
@@ -8335,7 +8170,7 @@
       <c r="N23" s="122"/>
       <c r="O23" s="122"/>
     </row>
-    <row r="24" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="124"/>
       <c r="C24" s="124"/>
       <c r="D24" s="124"/>
@@ -8355,7 +8190,7 @@
       <c r="N24" s="124"/>
       <c r="O24" s="124"/>
     </row>
-    <row r="25" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
       <c r="D25" s="122"/>
@@ -8375,7 +8210,7 @@
       <c r="N25" s="122"/>
       <c r="O25" s="122"/>
     </row>
-    <row r="26" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="124"/>
       <c r="C26" s="124"/>
       <c r="D26" s="124"/>
@@ -8395,7 +8230,7 @@
       <c r="N26" s="124"/>
       <c r="O26" s="124"/>
     </row>
-    <row r="27" spans="2:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="118"/>
       <c r="C27" s="118"/>
       <c r="D27" s="118"/>
@@ -8430,7 +8265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Arkusz4"/>
   <dimension ref="B2:S16"/>
   <sheetViews>
@@ -8438,131 +8273,131 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
-    <col min="8" max="14" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.33203125" customWidth="1"/>
+    <col min="8" max="14" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
+    <row r="2" spans="2:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="270" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="E2" s="145"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="210"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="148"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="148"/>
-      <c r="O3" s="148"/>
-      <c r="P3" s="149"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="146"/>
-      <c r="S3" s="147"/>
-    </row>
-    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
+      <c r="C2" s="161"/>
+      <c r="E2" s="146"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="148"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="211"/>
+      <c r="C3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="149"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="148"/>
+    </row>
+    <row r="4" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="153"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="154"/>
-    </row>
-    <row r="5" spans="2:19" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="154"/>
+      <c r="O4" s="154"/>
+      <c r="P4" s="157"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+    </row>
+    <row r="5" spans="2:19" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="280" t="s">
+      <c r="H5" s="282" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="280" t="s">
+      <c r="I5" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="J5" s="280" t="s">
+      <c r="J5" s="282" t="s">
         <v>188</v>
       </c>
-      <c r="K5" s="280" t="s">
+      <c r="K5" s="282" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="280" t="s">
+      <c r="L5" s="282" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="280" t="s">
+      <c r="M5" s="282" t="s">
         <v>191</v>
       </c>
-      <c r="N5" s="280" t="s">
+      <c r="N5" s="282" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="P5" s="272" t="s">
+      <c r="P5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="Q5" s="272" t="s">
+      <c r="Q5" s="274" t="s">
         <v>138</v>
       </c>
-      <c r="R5" s="272" t="s">
+      <c r="R5" s="274" t="s">
         <v>139</v>
       </c>
       <c r="S5"/>
     </row>
-    <row r="6" spans="2:19" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -8581,15 +8416,15 @@
       <c r="G6" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="302" t="s">
+      <c r="H6" s="305" t="s">
         <v>145</v>
       </c>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="302"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
       <c r="O6" s="138" t="s">
         <v>146</v>
       </c>
@@ -8603,7 +8438,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -8622,15 +8457,15 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="303" t="s">
+      <c r="H7" s="306" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="306"/>
+      <c r="N7" s="306"/>
       <c r="O7" s="137" t="s">
         <v>209</v>
       </c>
@@ -8644,128 +8479,128 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="165" t="str">
+    <row r="8" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="166" t="str">
         <f>SEC_Processes!D8</f>
         <v>ELE_EX_WIND-ON</v>
       </c>
-      <c r="C8" s="166" t="str">
+      <c r="C8" s="167" t="str">
         <f>SEC_Processes!E8</f>
         <v>Existing Onshore Wind Turbines</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="166" t="str">
+      <c r="E8" s="167" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F8" s="168">
+      <c r="F8" s="169">
         <v>1</v>
       </c>
-      <c r="G8" s="166">
+      <c r="G8" s="167">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="168">
+      <c r="H8" s="169">
         <f>BALANCE!D13/1000</f>
         <v>6.2276934486274804</v>
       </c>
-      <c r="I8" s="168">
+      <c r="I8" s="169">
         <v>6.2982500000000003</v>
       </c>
-      <c r="J8" s="168">
+      <c r="J8" s="169">
         <v>5.8289999999999997</v>
       </c>
-      <c r="K8" s="168">
+      <c r="K8" s="169">
         <v>4.3650000000000002</v>
       </c>
-      <c r="L8" s="168">
+      <c r="L8" s="169">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="M8" s="168">
+      <c r="M8" s="169">
         <v>0</v>
       </c>
-      <c r="N8" s="168">
+      <c r="N8" s="169">
         <v>0</v>
       </c>
-      <c r="O8" s="251">
+      <c r="O8" s="252">
         <v>0.05</v>
       </c>
-      <c r="P8" s="251">
+      <c r="P8" s="252">
         <f>BALANCE!E13/BALANCE!D13*1000/8760+0.01</f>
         <v>0.29637457639806086</v>
       </c>
-      <c r="Q8" s="251">
+      <c r="Q8" s="252">
         <f>50*4.5</f>
         <v>225</v>
       </c>
-      <c r="R8" s="251">
+      <c r="R8" s="252">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="197" t="str">
+    <row r="9" spans="2:19" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="198" t="str">
         <f>SEC_Processes!D9</f>
         <v>ELE_EX_PV</v>
       </c>
-      <c r="C9" s="197" t="str">
+      <c r="C9" s="198" t="str">
         <f>SEC_Processes!E9</f>
         <v>Existing Photovoltaics (all Types)</v>
       </c>
-      <c r="D9" s="197" t="s">
+      <c r="D9" s="198" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="197" t="str">
+      <c r="E9" s="198" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="229">
+      <c r="F9" s="230">
         <v>1</v>
       </c>
-      <c r="G9" s="197">
+      <c r="G9" s="198">
         <v>31.536000000000001</v>
       </c>
-      <c r="H9" s="229">
+      <c r="H9" s="230">
         <f>BALANCE!D14/1000</f>
         <v>3.9549600000000003</v>
       </c>
-      <c r="I9" s="229">
+      <c r="I9" s="230">
         <v>3.9549600000000003</v>
       </c>
-      <c r="J9" s="229">
+      <c r="J9" s="230">
         <v>3.9549600000000003</v>
       </c>
-      <c r="K9" s="229">
+      <c r="K9" s="230">
         <v>3.4839600000000002</v>
       </c>
-      <c r="L9" s="229">
+      <c r="L9" s="230">
         <v>2.197092</v>
       </c>
-      <c r="M9" s="229">
+      <c r="M9" s="230">
         <v>0.91022400000000003</v>
       </c>
-      <c r="N9" s="229">
+      <c r="N9" s="230">
         <v>0</v>
       </c>
-      <c r="O9" s="252">
+      <c r="O9" s="253">
         <v>0.05</v>
       </c>
-      <c r="P9" s="252">
+      <c r="P9" s="253">
         <v>1</v>
       </c>
-      <c r="Q9" s="252">
+      <c r="Q9" s="253">
         <f>16*4.5</f>
         <v>72</v>
       </c>
-      <c r="R9" s="252">
+      <c r="R9" s="253">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="142"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="I16" s="271"/>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="143"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="I16" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8780,7 +8615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Arkusz5"/>
   <dimension ref="B2:AH24"/>
   <sheetViews>
@@ -8788,151 +8623,151 @@
       <selection activeCell="AH8" sqref="AH8:AH10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="4" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="12.7109375" customWidth="1"/>
+    <col min="12" max="13" width="12.6640625" customWidth="1"/>
     <col min="14" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" customWidth="1"/>
-    <col min="18" max="19" width="15.28515625" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="29.7109375" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1"/>
-    <col min="25" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="31" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.6640625" customWidth="1"/>
+    <col min="18" max="19" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="10.88671875" customWidth="1"/>
+    <col min="22" max="22" width="29.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1"/>
+    <col min="25" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.88671875" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="31" width="14.5546875" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
+    <row r="2" spans="2:34" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="270" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="E2" s="145"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-    </row>
-    <row r="3" spans="2:34" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="L3" s="148"/>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="146"/>
-      <c r="Q3" s="147"/>
-      <c r="R3" s="147"/>
-      <c r="W3" s="187" t="s">
+      <c r="C2" s="161"/>
+      <c r="E2" s="146"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="152"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+    </row>
+    <row r="3" spans="2:34" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="151"/>
+      <c r="C3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="L3" s="149"/>
+      <c r="M3" s="149"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="148"/>
+      <c r="R3" s="148"/>
+      <c r="W3" s="188" t="s">
         <v>157</v>
       </c>
-      <c r="X3" s="187"/>
-    </row>
-    <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
+      <c r="X3" s="188"/>
+    </row>
+    <row r="4" spans="2:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="154"/>
-      <c r="P4" s="154"/>
-      <c r="Q4" s="154"/>
-      <c r="R4" s="147"/>
-    </row>
-    <row r="5" spans="2:34" s="143" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="154"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="148"/>
+    </row>
+    <row r="5" spans="2:34" s="144" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="274" t="s">
         <v>158</v>
       </c>
-      <c r="H5" s="272" t="s">
+      <c r="H5" s="274" t="s">
         <v>159</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="274" t="s">
         <v>160</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="274" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="272" t="s">
+      <c r="K5" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="280" t="s">
+      <c r="L5" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="M5" s="280" t="s">
+      <c r="M5" s="282" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="272" t="s">
+      <c r="N5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="O5" s="272" t="s">
+      <c r="O5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="272" t="s">
+      <c r="P5" s="274" t="s">
         <v>138</v>
       </c>
-      <c r="Q5" s="272" t="s">
+      <c r="Q5" s="274" t="s">
         <v>139</v>
       </c>
-      <c r="R5" s="272"/>
+      <c r="R5" s="274"/>
       <c r="S5"/>
-      <c r="W5" s="202" t="s">
+      <c r="W5" s="203" t="s">
         <v>162</v>
       </c>
-      <c r="X5" s="203"/>
-      <c r="Y5" s="203"/>
-      <c r="Z5" s="203"/>
-      <c r="AA5" s="203"/>
-      <c r="AB5" s="202"/>
-      <c r="AC5" s="203"/>
-      <c r="AD5" s="203"/>
-      <c r="AE5" s="203"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="203"/>
-    </row>
-    <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="204"/>
+      <c r="Y5" s="204"/>
+      <c r="Z5" s="204"/>
+      <c r="AA5" s="204"/>
+      <c r="AB5" s="203"/>
+      <c r="AC5" s="204"/>
+      <c r="AD5" s="204"/>
+      <c r="AE5" s="204"/>
+      <c r="AF5" s="205"/>
+      <c r="AG5" s="205"/>
+      <c r="AH5" s="204"/>
+    </row>
+    <row r="6" spans="2:34" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -8982,44 +8817,44 @@
         <v>149</v>
       </c>
       <c r="R6" s="138"/>
-      <c r="W6" s="205" t="s">
+      <c r="W6" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="X6" s="205" t="s">
+      <c r="X6" s="206" t="s">
         <v>168</v>
       </c>
-      <c r="Y6" s="205" t="s">
+      <c r="Y6" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="Z6" s="205" t="s">
+      <c r="Z6" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="AA6" s="205" t="s">
+      <c r="AA6" s="206" t="s">
         <v>28</v>
       </c>
-      <c r="AB6" s="205" t="s">
+      <c r="AB6" s="206" t="s">
         <v>171</v>
       </c>
-      <c r="AC6" s="205" t="s">
+      <c r="AC6" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="AD6" s="205" t="s">
+      <c r="AD6" s="206" t="s">
         <v>173</v>
       </c>
-      <c r="AE6" s="205" t="s">
+      <c r="AE6" s="206" t="s">
         <v>174</v>
       </c>
-      <c r="AF6" s="205" t="s">
+      <c r="AF6" s="206" t="s">
         <v>175</v>
       </c>
-      <c r="AG6" s="205" t="s">
+      <c r="AG6" s="206" t="s">
         <v>176</v>
       </c>
-      <c r="AH6" s="205" t="s">
+      <c r="AH6" s="206" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="2:34" ht="90" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -9069,398 +8904,398 @@
         <v>212</v>
       </c>
       <c r="R7" s="137"/>
-      <c r="W7" s="205"/>
-      <c r="X7" s="205"/>
-      <c r="Y7" s="205"/>
-      <c r="Z7" s="205"/>
-      <c r="AA7" s="205"/>
-      <c r="AB7" s="205"/>
-      <c r="AC7" s="205"/>
-      <c r="AD7" s="205"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="205"/>
-      <c r="AG7" s="205"/>
-      <c r="AH7" s="205"/>
-    </row>
-    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="166" t="str">
+      <c r="W7" s="206"/>
+      <c r="X7" s="206"/>
+      <c r="Y7" s="206"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="206"/>
+      <c r="AB7" s="206"/>
+      <c r="AC7" s="206"/>
+      <c r="AD7" s="206"/>
+      <c r="AE7" s="206"/>
+      <c r="AF7" s="206"/>
+      <c r="AG7" s="206"/>
+      <c r="AH7" s="206"/>
+    </row>
+    <row r="8" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="167" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="C8" s="166" t="str">
+      <c r="C8" s="167" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="166"/>
-      <c r="F8" s="231">
+      <c r="E8" s="167"/>
+      <c r="F8" s="232">
         <f>(L8*K8*O8)/(BALANCE!G11*BALANCE!H11/10^6)</f>
         <v>0.24771097483306254</v>
       </c>
-      <c r="G8" s="232">
+      <c r="G8" s="233">
         <f>BALANCE!F11/(3.6*BALANCE!E11)</f>
         <v>2.3407644073796177</v>
       </c>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="233">
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="234">
         <v>31.536000000000001</v>
       </c>
-      <c r="L8" s="231">
+      <c r="L8" s="232">
         <f>BALANCE!D11/1000</f>
         <v>4.0946000000000025</v>
       </c>
-      <c r="M8" s="231">
+      <c r="M8" s="232">
         <v>0</v>
       </c>
-      <c r="N8" s="232">
+      <c r="N8" s="233">
         <v>1</v>
       </c>
-      <c r="O8" s="232">
+      <c r="O8" s="233">
         <f>BALANCE!E11/BALANCE!D11*1000/8760</f>
         <v>0.45331450019816694</v>
       </c>
-      <c r="P8" s="232">
+      <c r="P8" s="233">
         <f>48*4.5</f>
         <v>216</v>
       </c>
-      <c r="Q8" s="232">
+      <c r="Q8" s="233">
         <f>3.2/3.6*4.5</f>
         <v>4</v>
       </c>
-      <c r="R8" s="233"/>
-      <c r="U8" s="304" t="str">
+      <c r="R8" s="234"/>
+      <c r="U8" s="307" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="V8" s="305" t="str">
+      <c r="V8" s="308" t="str">
         <f>SEC_Processes!E12</f>
         <v>Existing Hard Coal CHPs</v>
       </c>
-      <c r="W8" s="304">
+      <c r="W8" s="307">
         <f>L8*K8*O8</f>
         <v>58.53528</v>
       </c>
-      <c r="X8" s="304"/>
-      <c r="Y8" s="306">
+      <c r="X8" s="307"/>
+      <c r="Y8" s="309">
         <f>L8*K8*O8/3.6</f>
         <v>16.259799999999998</v>
       </c>
-      <c r="Z8" s="304">
+      <c r="Z8" s="307">
         <f>Y8*3.6</f>
         <v>58.535279999999993</v>
       </c>
-      <c r="AA8" s="304"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="306">
+      <c r="AA8" s="307"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="309">
         <f>Z8*G8</f>
         <v>137.01729999999998</v>
       </c>
-      <c r="AD8" s="304">
+      <c r="AD8" s="307">
         <f>Z8+AC8</f>
         <v>195.55257999999998</v>
       </c>
-      <c r="AE8" s="304">
+      <c r="AE8" s="307">
         <f>Z8/AC8</f>
         <v>0.42721087045212541</v>
       </c>
-      <c r="AF8" s="304">
+      <c r="AF8" s="307">
         <f>W8/F8</f>
         <v>236.30475007999996</v>
       </c>
-      <c r="AG8" s="304">
+      <c r="AG8" s="307">
         <f>AF8*10^6/(BALANCE!H11/1000)/1000</f>
         <v>11204.8</v>
       </c>
-      <c r="AH8" s="304">
+      <c r="AH8" s="307">
         <f>AD8/AF8</f>
         <v>0.82754400803960348</v>
       </c>
     </row>
-    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="166" t="str">
+    <row r="9" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="167" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F9" s="177"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="254"/>
-      <c r="P9" s="254"/>
-      <c r="Q9" s="254"/>
-      <c r="R9" s="165"/>
-      <c r="U9" s="304"/>
-      <c r="V9" s="305"/>
-      <c r="W9" s="304"/>
-      <c r="X9" s="304"/>
-      <c r="Y9" s="306"/>
-      <c r="Z9" s="304"/>
-      <c r="AA9" s="304"/>
-      <c r="AB9" s="304"/>
-      <c r="AC9" s="306"/>
-      <c r="AD9" s="304"/>
-      <c r="AE9" s="304"/>
-      <c r="AF9" s="304"/>
-      <c r="AG9" s="304"/>
-      <c r="AH9" s="304"/>
-    </row>
-    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="166" t="str">
-        <f>SEC_Comm!C14</f>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="255"/>
+      <c r="P9" s="255"/>
+      <c r="Q9" s="255"/>
+      <c r="R9" s="166"/>
+      <c r="U9" s="307"/>
+      <c r="V9" s="308"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="307"/>
+      <c r="Y9" s="309"/>
+      <c r="Z9" s="307"/>
+      <c r="AA9" s="307"/>
+      <c r="AB9" s="307"/>
+      <c r="AC9" s="309"/>
+      <c r="AD9" s="307"/>
+      <c r="AE9" s="307"/>
+      <c r="AF9" s="307"/>
+      <c r="AG9" s="307"/>
+      <c r="AH9" s="307"/>
+    </row>
+    <row r="10" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="167" t="str">
+        <f>SEC_Comm!C11</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="165"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="254"/>
-      <c r="P10" s="254"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="165"/>
-      <c r="U10" s="304"/>
-      <c r="V10" s="305"/>
-      <c r="W10" s="304"/>
-      <c r="X10" s="304"/>
-      <c r="Y10" s="306"/>
-      <c r="Z10" s="304"/>
-      <c r="AA10" s="304"/>
-      <c r="AB10" s="304"/>
-      <c r="AC10" s="306"/>
-      <c r="AD10" s="304"/>
-      <c r="AE10" s="304"/>
-      <c r="AF10" s="304"/>
-      <c r="AG10" s="304"/>
-      <c r="AH10" s="304"/>
-    </row>
-    <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="189" t="str">
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="255"/>
+      <c r="Q10" s="255"/>
+      <c r="R10" s="166"/>
+      <c r="U10" s="307"/>
+      <c r="V10" s="308"/>
+      <c r="W10" s="307"/>
+      <c r="X10" s="307"/>
+      <c r="Y10" s="309"/>
+      <c r="Z10" s="307"/>
+      <c r="AA10" s="307"/>
+      <c r="AB10" s="307"/>
+      <c r="AC10" s="309"/>
+      <c r="AD10" s="307"/>
+      <c r="AE10" s="307"/>
+      <c r="AF10" s="307"/>
+      <c r="AG10" s="307"/>
+      <c r="AH10" s="307"/>
+    </row>
+    <row r="11" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="190" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="C11" s="189" t="str">
+      <c r="C11" s="190" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="D11" s="189" t="s">
+      <c r="D11" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="189"/>
-      <c r="F11" s="235">
+      <c r="E11" s="190"/>
+      <c r="F11" s="236">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G11" s="234"/>
-      <c r="H11" s="253">
+      <c r="G11" s="235"/>
+      <c r="H11" s="254">
         <v>0.2</v>
       </c>
-      <c r="I11" s="253">
+      <c r="I11" s="254">
         <v>0.7</v>
       </c>
-      <c r="J11" s="234">
+      <c r="J11" s="235">
         <v>0.25</v>
       </c>
-      <c r="K11" s="234">
+      <c r="K11" s="235">
         <v>31.536000000000001</v>
       </c>
-      <c r="L11" s="235">
+      <c r="L11" s="236">
         <f>BALANCE!D12/1000</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="M11" s="235">
+      <c r="M11" s="236">
         <f>L11</f>
         <v>1.6565000000000001</v>
       </c>
-      <c r="N11" s="253">
+      <c r="N11" s="254">
         <v>1</v>
       </c>
-      <c r="O11" s="253">
+      <c r="O11" s="254">
         <v>0.59850000000000003</v>
       </c>
-      <c r="P11" s="253">
+      <c r="P11" s="254">
         <v>97.199999999999989</v>
       </c>
-      <c r="Q11" s="253">
+      <c r="Q11" s="254">
         <v>2.6999999999999997</v>
       </c>
-      <c r="R11" s="234"/>
-      <c r="U11" s="304" t="str">
+      <c r="R11" s="235"/>
+      <c r="U11" s="307" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="V11" s="305" t="str">
+      <c r="V11" s="308" t="str">
         <f>SEC_Processes!E13</f>
         <v>Existing Natural Gas CHPs</v>
       </c>
-      <c r="W11" s="304">
+      <c r="W11" s="307">
         <f>L11*K11*O11</f>
         <v>31.265271324000008</v>
       </c>
-      <c r="X11" s="304">
+      <c r="X11" s="307">
         <f>L11*K11*O11/3.6</f>
         <v>8.6847975900000023</v>
       </c>
-      <c r="Y11" s="306">
+      <c r="Y11" s="309">
         <f>BALANCE!E12/1000</f>
         <v>7.4646000000000008</v>
       </c>
-      <c r="Z11" s="304">
+      <c r="Z11" s="307">
         <f>Y11*3.6</f>
         <v>26.872560000000004</v>
       </c>
-      <c r="AA11" s="304">
+      <c r="AA11" s="307">
         <f>X11-Y11</f>
         <v>1.2201975900000015</v>
       </c>
-      <c r="AB11" s="304">
+      <c r="AB11" s="307">
         <f>AA11*3.6</f>
         <v>4.3927113240000057</v>
       </c>
-      <c r="AC11" s="306">
+      <c r="AC11" s="309">
         <f>AB11/J11</f>
         <v>17.570845296000023</v>
       </c>
-      <c r="AD11" s="304">
+      <c r="AD11" s="307">
         <f>Z11+AC11</f>
         <v>44.443405296000023</v>
       </c>
-      <c r="AE11" s="304">
+      <c r="AE11" s="307">
         <f>Z11/AC11</f>
         <v>1.5293834501017149</v>
       </c>
-      <c r="AF11" s="304">
+      <c r="AF11" s="307">
         <f>W11/F11</f>
         <v>56.845947861818189</v>
       </c>
-      <c r="AG11" s="304">
+      <c r="AG11" s="307">
         <f>AF11*10^6/(BALANCE!J12/1000)/1000</f>
         <v>1750.8839086401019</v>
       </c>
-      <c r="AH11" s="304">
+      <c r="AH11" s="307">
         <f>AD11/AF11</f>
         <v>0.78182187064649855</v>
       </c>
     </row>
-    <row r="12" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="191"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="189" t="str">
+    <row r="12" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="190" t="str">
         <f>SEC_Comm!C8</f>
         <v>ELEC_HV</v>
       </c>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="191"/>
-      <c r="O12" s="191"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="191"/>
-      <c r="U12" s="304"/>
-      <c r="V12" s="305"/>
-      <c r="W12" s="304"/>
-      <c r="X12" s="304"/>
-      <c r="Y12" s="306"/>
-      <c r="Z12" s="304"/>
-      <c r="AA12" s="304"/>
-      <c r="AB12" s="304"/>
-      <c r="AC12" s="306"/>
-      <c r="AD12" s="304"/>
-      <c r="AE12" s="304"/>
-      <c r="AF12" s="304"/>
-      <c r="AG12" s="304"/>
-      <c r="AH12" s="304"/>
-    </row>
-    <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195" t="str">
-        <f>SEC_Comm!C14</f>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="192"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="192"/>
+      <c r="R12" s="192"/>
+      <c r="U12" s="307"/>
+      <c r="V12" s="308"/>
+      <c r="W12" s="307"/>
+      <c r="X12" s="307"/>
+      <c r="Y12" s="309"/>
+      <c r="Z12" s="307"/>
+      <c r="AA12" s="307"/>
+      <c r="AB12" s="307"/>
+      <c r="AC12" s="309"/>
+      <c r="AD12" s="307"/>
+      <c r="AE12" s="307"/>
+      <c r="AF12" s="307"/>
+      <c r="AG12" s="307"/>
+      <c r="AH12" s="307"/>
+    </row>
+    <row r="13" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="195"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="196" t="str">
+        <f>SEC_Comm!C11</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="194"/>
-      <c r="L13" s="194"/>
-      <c r="M13" s="194"/>
-      <c r="N13" s="194"/>
-      <c r="O13" s="194"/>
-      <c r="P13" s="194"/>
-      <c r="Q13" s="194"/>
-      <c r="R13" s="194"/>
-      <c r="U13" s="304"/>
-      <c r="V13" s="305"/>
-      <c r="W13" s="304"/>
-      <c r="X13" s="304"/>
-      <c r="Y13" s="306"/>
-      <c r="Z13" s="304"/>
-      <c r="AA13" s="304"/>
-      <c r="AB13" s="304"/>
-      <c r="AC13" s="306"/>
-      <c r="AD13" s="304"/>
-      <c r="AE13" s="304"/>
-      <c r="AF13" s="304"/>
-      <c r="AG13" s="304"/>
-      <c r="AH13" s="304"/>
-    </row>
-    <row r="18" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC18" s="142"/>
-      <c r="AD18" s="142"/>
-      <c r="AE18" s="142"/>
-      <c r="AF18" s="181"/>
-      <c r="AG18" s="181"/>
-      <c r="AH18" s="181"/>
-    </row>
-    <row r="19" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC19" s="142"/>
-      <c r="AD19" s="142"/>
-      <c r="AE19" s="142"/>
-      <c r="AF19" s="181"/>
-      <c r="AG19" s="181"/>
-      <c r="AH19" s="181"/>
-    </row>
-    <row r="20" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AC20" s="142"/>
-      <c r="AD20" s="142"/>
-      <c r="AE20" s="142"/>
-      <c r="AH20" s="181"/>
-    </row>
-    <row r="21" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AD21" s="142"/>
-      <c r="AE21" s="142"/>
-      <c r="AG21" s="181"/>
-      <c r="AH21" s="181"/>
-    </row>
-    <row r="24" spans="29:34" x14ac:dyDescent="0.2">
-      <c r="AH24" s="186"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="197"/>
+      <c r="H13" s="197"/>
+      <c r="I13" s="197"/>
+      <c r="J13" s="197"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="U13" s="307"/>
+      <c r="V13" s="308"/>
+      <c r="W13" s="307"/>
+      <c r="X13" s="307"/>
+      <c r="Y13" s="309"/>
+      <c r="Z13" s="307"/>
+      <c r="AA13" s="307"/>
+      <c r="AB13" s="307"/>
+      <c r="AC13" s="309"/>
+      <c r="AD13" s="307"/>
+      <c r="AE13" s="307"/>
+      <c r="AF13" s="307"/>
+      <c r="AG13" s="307"/>
+      <c r="AH13" s="307"/>
+    </row>
+    <row r="18" spans="29:34" x14ac:dyDescent="0.25">
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="182"/>
+    </row>
+    <row r="19" spans="29:34" x14ac:dyDescent="0.25">
+      <c r="AC19" s="143"/>
+      <c r="AD19" s="143"/>
+      <c r="AE19" s="143"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="182"/>
+      <c r="AH19" s="182"/>
+    </row>
+    <row r="20" spans="29:34" x14ac:dyDescent="0.25">
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AH20" s="182"/>
+    </row>
+    <row r="21" spans="29:34" x14ac:dyDescent="0.25">
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="143"/>
+      <c r="AG21" s="182"/>
+      <c r="AH21" s="182"/>
+    </row>
+    <row r="24" spans="29:34" x14ac:dyDescent="0.25">
+      <c r="AH24" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -9505,7 +9340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Arkusz6"/>
   <dimension ref="B1:M8"/>
   <sheetViews>
@@ -9513,104 +9348,104 @@
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I1" s="141"/>
       <c r="L1" s="141"/>
     </row>
-    <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
+    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="270" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="E2" s="145"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="147"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="146"/>
-      <c r="M3" s="147"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
+      <c r="C2" s="161"/>
+      <c r="E2" s="146"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="151"/>
+      <c r="C3" s="145"/>
+      <c r="E3" s="146"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="148"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="156"/>
-      <c r="K4" s="154"/>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-    </row>
-    <row r="5" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="157"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+    </row>
+    <row r="5" spans="2:13" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="272" t="s">
+      <c r="G5" s="274" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="280" t="s">
+      <c r="H5" s="282" t="s">
         <v>186</v>
       </c>
-      <c r="I5" s="272" t="s">
+      <c r="I5" s="274" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="272" t="s">
+      <c r="J5" s="274" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="272" t="s">
+      <c r="K5" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="272" t="s">
+      <c r="L5" s="274" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="272" t="s">
+      <c r="M5" s="274" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
@@ -9648,7 +9483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
@@ -9667,10 +9502,10 @@
       <c r="G7" s="137" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="281" t="s">
+      <c r="H7" s="283" t="s">
         <v>205</v>
       </c>
-      <c r="I7" s="281" t="s">
+      <c r="I7" s="283" t="s">
         <v>205</v>
       </c>
       <c r="J7" s="137" t="s">
@@ -9686,48 +9521,48 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="172" t="str">
+    <row r="8" spans="2:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="173" t="str">
         <f>SEC_Processes!D14</f>
         <v>HPL_EX_HC</v>
       </c>
-      <c r="C8" s="172" t="str">
+      <c r="C8" s="173" t="str">
         <f>SEC_Processes!E14</f>
         <v>Existing Hard Coal Heat Only Plants</v>
       </c>
-      <c r="D8" s="172" t="s">
+      <c r="D8" s="173" t="s">
         <v>150</v>
       </c>
-      <c r="E8" s="172" t="str">
-        <f>SEC_Comm!C14</f>
+      <c r="E8" s="173" t="str">
+        <f>SEC_Comm!C11</f>
         <v>HEAT_HT</v>
       </c>
-      <c r="F8" s="255">
+      <c r="F8" s="256">
         <f>(H8*G8*K8)/(BALANCE!G15*BALANCE!H15/10^6)</f>
         <v>0.90573900332985746</v>
       </c>
-      <c r="G8" s="201">
+      <c r="G8" s="202">
         <v>31.536000000000001</v>
       </c>
-      <c r="H8" s="172">
+      <c r="H8" s="173">
         <f>BALANCE!D15</f>
         <v>19.806000000000001</v>
       </c>
-      <c r="I8" s="172">
+      <c r="I8" s="173">
         <f>H8</f>
         <v>19.806000000000001</v>
       </c>
-      <c r="J8" s="200">
+      <c r="J8" s="201">
         <v>1</v>
       </c>
-      <c r="K8" s="200">
+      <c r="K8" s="201">
         <f>ROUNDUP((BALANCE!F15/1000)/(H8*G8),2)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="L8" s="261">
+      <c r="L8" s="263">
         <v>14.323</v>
       </c>
-      <c r="M8" s="261">
+      <c r="M8" s="263">
         <v>3.617</v>
       </c>
     </row>
@@ -9738,7 +9573,158 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Arkusz7"/>
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="9" max="9" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="270" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="161"/>
+      <c r="E2" s="146"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="151"/>
+      <c r="C3" s="145"/>
+      <c r="E3" s="146"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="156" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="154"/>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="274" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="274" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="274" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="165"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="31.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="192" t="str">
+        <f>SEC_Processes!D15</f>
+        <v>TRANSF_HV-LV</v>
+      </c>
+      <c r="C8" s="192" t="str">
+        <f>SEC_Processes!E15</f>
+        <v>Electricity Transformation and Distribution High Voltage to Low Voltage</v>
+      </c>
+      <c r="D8" s="192" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="E8" s="192" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELEC_LV</v>
+      </c>
+      <c r="F8" s="257">
+        <f>BALANCE!E29*BALANCE!E30*BALANCE!E31</f>
+        <v>0.90779680266244211</v>
+      </c>
+      <c r="H8" s="1">
+        <f>1-F8</f>
+        <v>9.2203197337557885E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="173" t="str">
+        <f>SEC_Processes!D16</f>
+        <v>TRANSF_HT-LT</v>
+      </c>
+      <c r="C9" s="173" t="str">
+        <f>SEC_Processes!E16</f>
+        <v>Heat Transformation and Distribution</v>
+      </c>
+      <c r="D9" s="177" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>HEAT_HT</v>
+      </c>
+      <c r="E9" s="177" t="str">
+        <f>SEC_Comm!C12</f>
+        <v>HEAT_LT</v>
+      </c>
+      <c r="F9" s="258">
+        <f>BALANCE!E32</f>
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="143"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Arkusz8"/>
   <dimension ref="B2:H15"/>
   <sheetViews>
@@ -9746,160 +9732,160 @@
       <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="B2" s="187" t="s">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="188" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="188"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-    </row>
-    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="157"/>
-      <c r="C4" s="155" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="158"/>
+      <c r="C4" s="156" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-    </row>
-    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="274" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="272" t="s">
+      <c r="C5" s="274" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="272" t="s">
+      <c r="D5" s="274" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="272" t="s">
+      <c r="E5" s="274" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="272" t="s">
+      <c r="F5" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="H5" s="264" t="s">
+      <c r="H5" s="266" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="138" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="302" t="s">
+      <c r="D6" s="305" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-    </row>
-    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+    </row>
+    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="137" t="s">
         <v>213</v>
       </c>
       <c r="C7" s="137" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="303" t="s">
+      <c r="D7" s="306" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="166" t="str">
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="167" t="str">
         <f>SEC_Processes!D10</f>
         <v>ELE_EX_HC</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="257">
+      <c r="D8" s="259">
         <v>94.19</v>
       </c>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="189" t="str">
+      <c r="E8" s="259"/>
+      <c r="F8" s="259"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="190" t="str">
         <f>SEC_Processes!D11</f>
         <v>ELE_EX_BC</v>
       </c>
-      <c r="C9" s="190" t="s">
+      <c r="C9" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="258"/>
-      <c r="E9" s="258">
+      <c r="D9" s="260"/>
+      <c r="E9" s="260">
         <v>109.08</v>
       </c>
-      <c r="F9" s="258"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="166" t="str">
+      <c r="F9" s="260"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="167" t="str">
         <f>SEC_Processes!D12</f>
         <v>CHP_EX_HC</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="170" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="257">
+      <c r="D10" s="259">
         <v>94.19</v>
       </c>
-      <c r="E10" s="257"/>
-      <c r="F10" s="257"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="189" t="str">
+      <c r="E10" s="259"/>
+      <c r="F10" s="259"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="190" t="str">
         <f>SEC_Processes!D13</f>
         <v>CHP_EX_NAT-GAS</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="258"/>
-      <c r="E11" s="258"/>
-      <c r="F11" s="258">
+      <c r="D11" s="260"/>
+      <c r="E11" s="260"/>
+      <c r="F11" s="260">
         <v>55.82</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="172" t="str">
+    <row r="12" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="173" t="str">
         <f>SEC_Processes!D14</f>
         <v>HPL_EX_HC</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="259">
+      <c r="D12" s="261">
         <v>94.19</v>
       </c>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="H12" s="142"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="262"/>
+      <c r="F12" s="262"/>
+      <c r="H12" s="143"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>192</v>
       </c>
@@ -9914,217 +9900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Arkusz7"/>
-  <dimension ref="B2:I15"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="9" max="9" width="53.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="268" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="160"/>
-      <c r="E2" s="145"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="150"/>
-      <c r="C3" s="144"/>
-      <c r="E3" s="145"/>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E4" s="155" t="s">
-        <v>129</v>
-      </c>
-      <c r="F4" s="153"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="272" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="272" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="272" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="272" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="272" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" s="164"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="138" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="138" t="s">
-        <v>142</v>
-      </c>
-      <c r="F6" s="138" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="31.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="137" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" t="str">
-        <f>SEC_Processes!D15</f>
-        <v>TRANSF_HV-HV</v>
-      </c>
-      <c r="C8" t="str">
-        <f>SEC_Processes!E15</f>
-        <v>Electricity Transformation and Distribution High Voltage to High Voltage</v>
-      </c>
-      <c r="D8" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="E8" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
-      </c>
-      <c r="F8" s="271">
-        <f>BALANCE!E29</f>
-        <v>0.97706171756374371</v>
-      </c>
-      <c r="H8" s="1">
-        <f>1-F8</f>
-        <v>2.2938282436256285E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" t="str">
-        <f>SEC_Processes!D16</f>
-        <v>TRANSF_MV-MV</v>
-      </c>
-      <c r="C9" t="str">
-        <f>SEC_Processes!E16</f>
-        <v>Electricity Transformation and Distribution Medium Voltage to Medium Voltage</v>
-      </c>
-      <c r="D9" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELEC_MV</v>
-      </c>
-      <c r="E9" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELEC_MV</v>
-      </c>
-      <c r="F9" s="271">
-        <f>BALANCE!E30</f>
-        <v>0.9764416403645515</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="str">
-        <f>SEC_Processes!D17</f>
-        <v>TRANSF_LV-LV</v>
-      </c>
-      <c r="C10" t="str">
-        <f>SEC_Processes!E17</f>
-        <v>Electricity Transformation and Distribution Low Voltage to Low Voltage</v>
-      </c>
-      <c r="D10" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="E10" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELEC_LV</v>
-      </c>
-      <c r="F10" s="271">
-        <f>BALANCE!E31</f>
-        <v>0.9515253427786764</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="172" t="str">
-        <f>SEC_Processes!D19</f>
-        <v>TRANSF_HT-LT</v>
-      </c>
-      <c r="C11" s="172" t="str">
-        <f>SEC_Processes!E19</f>
-        <v>Heat Transformation and Distribution</v>
-      </c>
-      <c r="D11" s="176" t="str">
-        <f>SEC_Comm!C14</f>
-        <v>HEAT_HT</v>
-      </c>
-      <c r="E11" s="176" t="str">
-        <f>SEC_Comm!C15</f>
-        <v>HEAT_LT</v>
-      </c>
-      <c r="F11" s="256">
-        <f>BALANCE!E32</f>
-        <v>0.85899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="E15" s="142"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="304d45e6d5149914c9d9c7e63f737d0c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4ab2ce33a85fc3634f0c8a3fa79a735e" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -10301,7 +10077,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0711598C-D257-4C18-AE2A-3557063E1EC4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10312,29 +10107,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0711598C-D257-4C18-AE2A-3557063E1EC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
-    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>